--- a/templates/4b BA dan Hasil Kualifikasi.xlsx
+++ b/templates/4b BA dan Hasil Kualifikasi.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="140" windowWidth="22700" windowHeight="14180" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Penerimaan" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Penerimaan!$2:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Resume!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -474,20 +474,56 @@
     <t>.......................</t>
   </si>
   <si>
-    <t>PEKERJAAN...........................................</t>
+    <t>.....</t>
+  </si>
+  <si>
+    <t>PT A</t>
+  </si>
+  <si>
+    <t>PT B</t>
+  </si>
+  <si>
+    <t>PT C</t>
+  </si>
+  <si>
+    <t>PT D</t>
+  </si>
+  <si>
+    <t>(Dokumen Prakualifikasi No................. tanggal ...............)</t>
+  </si>
+  <si>
+    <t>......</t>
+  </si>
+  <si>
+    <t>Panitia-...Pengadaan Barang dan Jasa untuk Pengadaan ................................</t>
+  </si>
+  <si>
+    <t>.................. /</t>
+  </si>
+  <si>
+    <t>..............</t>
+  </si>
+  <si>
+    <t>KDIVMUM/MSDAF</t>
+  </si>
+  <si>
+    <t>............/</t>
+  </si>
+  <si>
+    <t>............</t>
   </si>
   <si>
     <r>
-      <t>Pada hari ini ...... tanggal ............bulan .......... tahun ..............(............), kami yang bertandatangan di bawah ini Panitia-... Pengadaan Barang/Jasa melalui ...........(metode) sesuai Surat Tugas Kepala Divisi Umum dan Manajemen Kantor Pusat No. ....</t>
+      <t xml:space="preserve">Pada hari ini </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/...</t>
+      <t>#hari#</t>
     </r>
     <r>
       <rPr>
@@ -495,50 +531,190 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/...../20XX tanggal ....... telah melakukan kualifikasi terhadap dokumen prakualikasi yang disampaikan Penyedia Barang/Jasa sesuai Dokumen Prakualifikasi No..../.../PPBJ-P.../.... tanggal ...... dengan hasil sebagai berikut :</t>
+      <t xml:space="preserve"> tanggal </t>
     </r>
-  </si>
-  <si>
-    <t>.....</t>
-  </si>
-  <si>
-    <t>PT A</t>
-  </si>
-  <si>
-    <t>PT B</t>
-  </si>
-  <si>
-    <t>PT C</t>
-  </si>
-  <si>
-    <t>PT D</t>
-  </si>
-  <si>
-    <t>(Dokumen Prakualifikasi No................. tanggal ...............)</t>
-  </si>
-  <si>
-    <t>......</t>
-  </si>
-  <si>
-    <t>No..../..../PPBJ-P.../....</t>
-  </si>
-  <si>
-    <t>Panitia-...Pengadaan Barang dan Jasa untuk Pengadaan ................................</t>
-  </si>
-  <si>
-    <t>.................. /</t>
-  </si>
-  <si>
-    <t>..............</t>
-  </si>
-  <si>
-    <t>KDIVMUM/MSDAF</t>
-  </si>
-  <si>
-    <t>............/</t>
-  </si>
-  <si>
-    <t>............</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tanggal#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> bulan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#bulan#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tahun </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tahun# (#tgllengkap#)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , kami yang bertandatangan di bawah ini </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#panitia#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Pengadaan Barang/Jasa melalui </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...........</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(metode) sesuai Surat Tugas Kepala Divisi Umum dan Manajemen Kantor Pusat No. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nosk#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tglsk#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> telah melakukan kualifikasi terhadap dokumen prakualikasi yang disampaikan Penyedia Barang/Jasa sesuai Dokumen Prakualifikasi No </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nopq#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tglpq#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> dengan hasil sebagai berikut :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">No. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nobapq#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PEKERJAAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#namapengadaan#</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -547,10 +723,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -684,13 +860,20 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1073,7 +1256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1335,7 +1518,7 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,14 +1613,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1480,7 +1663,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="7" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1613,17 +1796,74 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1631,62 +1871,47 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1700,51 +1925,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1805,103 +1988,142 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1938,47 +2160,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1988,6 +2171,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -6956,14 +7144,14 @@
           <a:noFill/>
         </a:ln>
         <a:extLst>
-          <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
-          <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
             <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -7389,149 +7577,149 @@
   <dimension ref="B2:R104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:R5"/>
+      <selection activeCell="B3" sqref="B3:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
-    <col min="3" max="3" width="0.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="1.5" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="1.42578125" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0.83203125" customWidth="1"/>
-    <col min="14" max="14" width="2.33203125" customWidth="1"/>
-    <col min="15" max="16" width="2.5" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="0.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0.85546875" customWidth="1"/>
+    <col min="14" max="14" width="2.28515625" customWidth="1"/>
+    <col min="15" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="0.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="21" customFormat="1" ht="17">
-      <c r="B2" s="235" t="s">
+    <row r="2" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B2" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="235"/>
-      <c r="D2" s="235"/>
-      <c r="E2" s="235"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="235"/>
-      <c r="H2" s="235"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="235"/>
-      <c r="K2" s="235"/>
-      <c r="L2" s="235"/>
-      <c r="M2" s="235"/>
-      <c r="N2" s="235"/>
-      <c r="O2" s="235"/>
-      <c r="P2" s="235"/>
-      <c r="Q2" s="235"/>
-      <c r="R2" s="235"/>
-    </row>
-    <row r="3" spans="2:18" s="21" customFormat="1" ht="17">
-      <c r="B3" s="242" t="str">
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="246"/>
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="246"/>
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+    </row>
+    <row r="3" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B3" s="249" t="str">
         <f>BA!B12</f>
-        <v>PEKERJAAN...........................................</v>
-      </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
-      <c r="N3" s="242"/>
-      <c r="O3" s="242"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="249"/>
+      <c r="K3" s="249"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="249"/>
+      <c r="N3" s="249"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="249"/>
+      <c r="Q3" s="249"/>
       <c r="R3" s="155"/>
     </row>
-    <row r="4" spans="2:18" s="21" customFormat="1" ht="17">
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
+    <row r="4" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="249"/>
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249"/>
       <c r="R4" s="155"/>
     </row>
-    <row r="5" spans="2:18" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="B5" s="236" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="237"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-      <c r="H5" s="237"/>
-      <c r="I5" s="237"/>
-      <c r="J5" s="237"/>
-      <c r="K5" s="237"/>
-      <c r="L5" s="237"/>
-      <c r="M5" s="237"/>
-      <c r="N5" s="237"/>
-      <c r="O5" s="237"/>
-      <c r="P5" s="237"/>
-      <c r="Q5" s="237"/>
-      <c r="R5" s="237"/>
-    </row>
-    <row r="7" spans="2:18" s="13" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B7" s="238" t="s">
+    <row r="5" spans="2:18" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="247" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="248"/>
+      <c r="D5" s="248"/>
+      <c r="E5" s="248"/>
+      <c r="F5" s="248"/>
+      <c r="G5" s="248"/>
+      <c r="H5" s="248"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="248"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="248"/>
+      <c r="N5" s="248"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="248"/>
+      <c r="Q5" s="248"/>
+      <c r="R5" s="248"/>
+    </row>
+    <row r="7" spans="2:18" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="236" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="239"/>
-      <c r="D7" s="245" t="s">
+      <c r="C7" s="238"/>
+      <c r="D7" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="249" t="s">
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="233" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="250"/>
-      <c r="J7" s="249" t="s">
+      <c r="I7" s="234"/>
+      <c r="J7" s="233" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="251"/>
-      <c r="L7" s="250"/>
-      <c r="M7" s="238" t="s">
+      <c r="K7" s="235"/>
+      <c r="L7" s="234"/>
+      <c r="M7" s="236" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="252"/>
-      <c r="O7" s="252"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="252"/>
-      <c r="R7" s="239"/>
-    </row>
-    <row r="8" spans="2:18" s="13" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B8" s="240"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="237"/>
+      <c r="P7" s="237"/>
+      <c r="Q7" s="237"/>
+      <c r="R7" s="238"/>
+    </row>
+    <row r="8" spans="2:18" s="13" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="239"/>
       <c r="C8" s="241"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="248"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="232"/>
       <c r="H8" s="75" t="s">
         <v>24</v>
       </c>
@@ -7547,14 +7735,14 @@
       <c r="L8" s="144" t="s">
         <v>82</v>
       </c>
-      <c r="M8" s="240"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="253"/>
-      <c r="P8" s="253"/>
-      <c r="Q8" s="253"/>
+      <c r="M8" s="239"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="240"/>
+      <c r="P8" s="240"/>
+      <c r="Q8" s="240"/>
       <c r="R8" s="241"/>
     </row>
-    <row r="9" spans="2:18" ht="13" thickTop="1">
+    <row r="9" spans="2:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
         <v>1</v>
       </c>
@@ -7565,7 +7753,7 @@
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="229" t="s">
+      <c r="F9" s="244" t="s">
         <v>136</v>
       </c>
       <c r="G9" s="3"/>
@@ -7577,18 +7765,18 @@
       <c r="K9" s="159"/>
       <c r="L9" s="159"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="244"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
+      <c r="N9" s="251"/>
+      <c r="O9" s="251"/>
+      <c r="P9" s="251"/>
+      <c r="Q9" s="251"/>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="230"/>
+      <c r="F10" s="245"/>
       <c r="G10" s="3"/>
       <c r="H10" s="54"/>
       <c r="I10" s="3"/>
@@ -7596,13 +7784,13 @@
       <c r="K10" s="54"/>
       <c r="L10" s="160"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="230"/>
-      <c r="O10" s="230"/>
-      <c r="P10" s="230"/>
-      <c r="Q10" s="230"/>
+      <c r="N10" s="245"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="245"/>
+      <c r="Q10" s="245"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="2:18">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2" t="s">
@@ -7611,7 +7799,7 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="243"/>
+      <c r="F11" s="250"/>
       <c r="G11" s="3"/>
       <c r="H11" s="54"/>
       <c r="I11" s="3"/>
@@ -7619,18 +7807,18 @@
       <c r="K11" s="54"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="230"/>
-      <c r="O11" s="230"/>
-      <c r="P11" s="230"/>
-      <c r="Q11" s="230"/>
+      <c r="N11" s="245"/>
+      <c r="O11" s="245"/>
+      <c r="P11" s="245"/>
+      <c r="Q11" s="245"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="243"/>
+      <c r="F12" s="250"/>
       <c r="G12" s="3"/>
       <c r="H12" s="54"/>
       <c r="I12" s="3"/>
@@ -7638,18 +7826,18 @@
       <c r="K12" s="54"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="230"/>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
+      <c r="N12" s="245"/>
+      <c r="O12" s="245"/>
+      <c r="P12" s="245"/>
+      <c r="Q12" s="245"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="2:18">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="243"/>
+      <c r="F13" s="250"/>
       <c r="G13" s="3"/>
       <c r="H13" s="54"/>
       <c r="I13" s="3"/>
@@ -7657,18 +7845,18 @@
       <c r="K13" s="54"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="P13" s="230"/>
-      <c r="Q13" s="230"/>
+      <c r="N13" s="245"/>
+      <c r="O13" s="245"/>
+      <c r="P13" s="245"/>
+      <c r="Q13" s="245"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="2:18" ht="28.5" customHeight="1">
+    <row r="14" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="243"/>
+      <c r="F14" s="250"/>
       <c r="G14" s="3"/>
       <c r="H14" s="54"/>
       <c r="I14" s="3"/>
@@ -7676,13 +7864,13 @@
       <c r="K14" s="54"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="230"/>
-      <c r="O14" s="230"/>
-      <c r="P14" s="230"/>
-      <c r="Q14" s="230"/>
+      <c r="N14" s="245"/>
+      <c r="O14" s="245"/>
+      <c r="P14" s="245"/>
+      <c r="Q14" s="245"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="2:18" ht="18" customHeight="1">
+    <row r="15" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
@@ -7701,13 +7889,13 @@
       <c r="K15" s="54"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="230"/>
-      <c r="O15" s="230"/>
-      <c r="P15" s="230"/>
-      <c r="Q15" s="230"/>
+      <c r="N15" s="245"/>
+      <c r="O15" s="245"/>
+      <c r="P15" s="245"/>
+      <c r="Q15" s="245"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="2:18" ht="18" customHeight="1">
+    <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
       <c r="D16" s="2" t="s">
@@ -7726,13 +7914,13 @@
       <c r="K16" s="54"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="230"/>
-      <c r="O16" s="230"/>
-      <c r="P16" s="230"/>
-      <c r="Q16" s="230"/>
+      <c r="N16" s="245"/>
+      <c r="O16" s="245"/>
+      <c r="P16" s="245"/>
+      <c r="Q16" s="245"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="2:18" ht="18" customHeight="1">
+    <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
       <c r="D17" s="2" t="s">
@@ -7751,13 +7939,13 @@
       <c r="K17" s="54"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="230"/>
-      <c r="O17" s="230"/>
-      <c r="P17" s="230"/>
-      <c r="Q17" s="230"/>
+      <c r="N17" s="245"/>
+      <c r="O17" s="245"/>
+      <c r="P17" s="245"/>
+      <c r="Q17" s="245"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="2:18" ht="18" customHeight="1">
+    <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
       <c r="D18" s="156" t="s">
@@ -7776,13 +7964,13 @@
       <c r="K18" s="54"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="230"/>
-      <c r="O18" s="230"/>
-      <c r="P18" s="230"/>
-      <c r="Q18" s="230"/>
+      <c r="N18" s="245"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="245"/>
+      <c r="Q18" s="245"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="2:18" hidden="1">
+    <row r="19" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
       <c r="D19" s="2" t="s">
@@ -7801,13 +7989,13 @@
       <c r="K19" s="54"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="230"/>
-      <c r="O19" s="230"/>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="230"/>
+      <c r="N19" s="245"/>
+      <c r="O19" s="245"/>
+      <c r="P19" s="245"/>
+      <c r="Q19" s="245"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="2:18" hidden="1">
+    <row r="20" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
       <c r="D20" s="78" t="s">
@@ -7824,13 +8012,13 @@
       <c r="K20" s="54"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="230"/>
-      <c r="P20" s="230"/>
-      <c r="Q20" s="230"/>
+      <c r="N20" s="245"/>
+      <c r="O20" s="245"/>
+      <c r="P20" s="245"/>
+      <c r="Q20" s="245"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="2:18" ht="4.5" customHeight="1">
+    <row r="21" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="72"/>
       <c r="C21" s="73"/>
       <c r="D21" s="71"/>
@@ -7849,7 +8037,7 @@
       <c r="Q21" s="71"/>
       <c r="R21" s="73"/>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="1">
         <v>2</v>
       </c>
@@ -7860,8 +8048,8 @@
       <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="229" t="s">
-        <v>140</v>
+      <c r="F22" s="244" t="s">
+        <v>138</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="54"/>
@@ -7872,18 +8060,18 @@
       <c r="K22" s="159"/>
       <c r="L22" s="159"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="233"/>
-      <c r="O22" s="233"/>
-      <c r="P22" s="233"/>
-      <c r="Q22" s="233"/>
+      <c r="N22" s="252"/>
+      <c r="O22" s="252"/>
+      <c r="P22" s="252"/>
+      <c r="Q22" s="252"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="2:18">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="230"/>
+      <c r="F23" s="245"/>
       <c r="G23" s="3"/>
       <c r="H23" s="54"/>
       <c r="I23" s="3"/>
@@ -7891,13 +8079,13 @@
       <c r="K23" s="54"/>
       <c r="L23" s="166"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="230"/>
-      <c r="O23" s="230"/>
-      <c r="P23" s="230"/>
-      <c r="Q23" s="230"/>
+      <c r="N23" s="245"/>
+      <c r="O23" s="245"/>
+      <c r="P23" s="245"/>
+      <c r="Q23" s="245"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="2:18">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
       <c r="D24" s="2" t="s">
@@ -7906,7 +8094,7 @@
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="231"/>
+      <c r="F24" s="242"/>
       <c r="G24" s="3"/>
       <c r="H24" s="54"/>
       <c r="I24" s="3"/>
@@ -7914,18 +8102,18 @@
       <c r="K24" s="54"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="230"/>
-      <c r="O24" s="230"/>
-      <c r="P24" s="230"/>
-      <c r="Q24" s="230"/>
+      <c r="N24" s="245"/>
+      <c r="O24" s="245"/>
+      <c r="P24" s="245"/>
+      <c r="Q24" s="245"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="232"/>
+      <c r="F25" s="243"/>
       <c r="G25" s="3"/>
       <c r="H25" s="54"/>
       <c r="I25" s="3"/>
@@ -7933,18 +8121,18 @@
       <c r="K25" s="54"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="230"/>
-      <c r="O25" s="230"/>
-      <c r="P25" s="230"/>
-      <c r="Q25" s="230"/>
+      <c r="N25" s="245"/>
+      <c r="O25" s="245"/>
+      <c r="P25" s="245"/>
+      <c r="Q25" s="245"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="2:18">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="232"/>
+      <c r="F26" s="243"/>
       <c r="G26" s="3"/>
       <c r="H26" s="54"/>
       <c r="I26" s="3"/>
@@ -7952,18 +8140,18 @@
       <c r="K26" s="54"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="230"/>
-      <c r="O26" s="230"/>
-      <c r="P26" s="230"/>
-      <c r="Q26" s="230"/>
+      <c r="N26" s="245"/>
+      <c r="O26" s="245"/>
+      <c r="P26" s="245"/>
+      <c r="Q26" s="245"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="2:18">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="232"/>
+      <c r="F27" s="243"/>
       <c r="G27" s="3"/>
       <c r="H27" s="54"/>
       <c r="I27" s="3"/>
@@ -7971,13 +8159,13 @@
       <c r="K27" s="54"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="230"/>
-      <c r="O27" s="230"/>
-      <c r="P27" s="230"/>
-      <c r="Q27" s="230"/>
+      <c r="N27" s="245"/>
+      <c r="O27" s="245"/>
+      <c r="P27" s="245"/>
+      <c r="Q27" s="245"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="2:18" ht="18" customHeight="1">
+    <row r="28" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
       <c r="D28" s="2" t="s">
@@ -7996,13 +8184,13 @@
       <c r="K28" s="54"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="230"/>
-      <c r="O28" s="230"/>
-      <c r="P28" s="230"/>
-      <c r="Q28" s="230"/>
+      <c r="N28" s="245"/>
+      <c r="O28" s="245"/>
+      <c r="P28" s="245"/>
+      <c r="Q28" s="245"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="2:18" ht="18" customHeight="1">
+    <row r="29" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
       <c r="D29" s="2" t="s">
@@ -8021,13 +8209,13 @@
       <c r="K29" s="54"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="230"/>
-      <c r="O29" s="230"/>
-      <c r="P29" s="230"/>
-      <c r="Q29" s="230"/>
+      <c r="N29" s="245"/>
+      <c r="O29" s="245"/>
+      <c r="P29" s="245"/>
+      <c r="Q29" s="245"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="2:18" ht="18" customHeight="1">
+    <row r="30" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2" t="s">
@@ -8046,13 +8234,13 @@
       <c r="K30" s="54"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="230"/>
-      <c r="O30" s="230"/>
-      <c r="P30" s="230"/>
-      <c r="Q30" s="230"/>
+      <c r="N30" s="245"/>
+      <c r="O30" s="245"/>
+      <c r="P30" s="245"/>
+      <c r="Q30" s="245"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="2:18" ht="18" customHeight="1">
+    <row r="31" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
       <c r="D31" s="156" t="s">
@@ -8071,13 +8259,13 @@
       <c r="K31" s="54"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="230"/>
-      <c r="O31" s="230"/>
-      <c r="P31" s="230"/>
-      <c r="Q31" s="230"/>
+      <c r="N31" s="245"/>
+      <c r="O31" s="245"/>
+      <c r="P31" s="245"/>
+      <c r="Q31" s="245"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="2:18" hidden="1">
+    <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
       <c r="D32" s="2" t="s">
@@ -8096,13 +8284,13 @@
       <c r="K32" s="54"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="230"/>
-      <c r="O32" s="230"/>
-      <c r="P32" s="230"/>
-      <c r="Q32" s="230"/>
+      <c r="N32" s="245"/>
+      <c r="O32" s="245"/>
+      <c r="P32" s="245"/>
+      <c r="Q32" s="245"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="2:18" hidden="1">
+    <row r="33" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
       <c r="D33" s="78" t="s">
@@ -8119,13 +8307,13 @@
       <c r="K33" s="54"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="230"/>
-      <c r="O33" s="230"/>
-      <c r="P33" s="230"/>
-      <c r="Q33" s="230"/>
+      <c r="N33" s="245"/>
+      <c r="O33" s="245"/>
+      <c r="P33" s="245"/>
+      <c r="Q33" s="245"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="2:18" ht="4.5" customHeight="1">
+    <row r="34" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="72"/>
       <c r="C34" s="73"/>
       <c r="D34" s="71"/>
@@ -8144,7 +8332,7 @@
       <c r="Q34" s="71"/>
       <c r="R34" s="73"/>
     </row>
-    <row r="35" spans="2:18" ht="12" customHeight="1">
+    <row r="35" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1">
         <v>3</v>
       </c>
@@ -8155,8 +8343,8 @@
       <c r="E35" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="229" t="s">
-        <v>141</v>
+      <c r="F35" s="244" t="s">
+        <v>139</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="54"/>
@@ -8173,12 +8361,12 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="2:18" ht="12" customHeight="1">
+    <row r="36" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="230"/>
+      <c r="F36" s="245"/>
       <c r="G36" s="3"/>
       <c r="H36" s="54"/>
       <c r="I36" s="3"/>
@@ -8192,12 +8380,12 @@
       <c r="Q36" s="2"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="2:18" ht="12" customHeight="1">
+    <row r="37" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="231"/>
+      <c r="F37" s="242"/>
       <c r="G37" s="3"/>
       <c r="H37" s="54"/>
       <c r="I37" s="3"/>
@@ -8211,7 +8399,7 @@
       <c r="Q37" s="2"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="2:18" ht="12" customHeight="1">
+    <row r="38" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
       <c r="D38" s="2" t="s">
@@ -8220,7 +8408,7 @@
       <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="232"/>
+      <c r="F38" s="243"/>
       <c r="G38" s="3"/>
       <c r="H38" s="54"/>
       <c r="I38" s="3"/>
@@ -8234,12 +8422,12 @@
       <c r="Q38" s="2"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="2:18" ht="12" customHeight="1">
+    <row r="39" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="232"/>
+      <c r="F39" s="243"/>
       <c r="G39" s="3"/>
       <c r="H39" s="54"/>
       <c r="I39" s="3"/>
@@ -8253,12 +8441,12 @@
       <c r="Q39" s="2"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="2:18" ht="12" customHeight="1">
+    <row r="40" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="232"/>
+      <c r="F40" s="243"/>
       <c r="G40" s="3"/>
       <c r="H40" s="54"/>
       <c r="I40" s="3"/>
@@ -8272,7 +8460,7 @@
       <c r="Q40" s="2"/>
       <c r="R40" s="3"/>
     </row>
-    <row r="41" spans="2:18" ht="12" customHeight="1">
+    <row r="41" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
       <c r="D41" s="156" t="s">
@@ -8295,7 +8483,7 @@
       <c r="Q41" s="2"/>
       <c r="R41" s="3"/>
     </row>
-    <row r="42" spans="2:18" ht="12" customHeight="1">
+    <row r="42" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
       <c r="D42" s="156" t="s">
@@ -8318,7 +8506,7 @@
       <c r="Q42" s="2"/>
       <c r="R42" s="3"/>
     </row>
-    <row r="43" spans="2:18" ht="12" customHeight="1">
+    <row r="43" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
       <c r="D43" s="157" t="s">
@@ -8341,7 +8529,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="3"/>
     </row>
-    <row r="44" spans="2:18" ht="12" customHeight="1">
+    <row r="44" spans="2:18" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
       <c r="D44" s="157" t="s">
@@ -8364,7 +8552,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="3"/>
     </row>
-    <row r="45" spans="2:18">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="187">
         <v>4</v>
       </c>
@@ -8375,8 +8563,8 @@
       <c r="E45" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="234" t="s">
-        <v>142</v>
+      <c r="F45" s="253" t="s">
+        <v>140</v>
       </c>
       <c r="G45" s="188"/>
       <c r="H45" s="190"/>
@@ -8393,12 +8581,12 @@
       <c r="Q45" s="193"/>
       <c r="R45" s="188"/>
     </row>
-    <row r="46" spans="2:18">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="230"/>
+      <c r="F46" s="245"/>
       <c r="G46" s="3"/>
       <c r="H46" s="54"/>
       <c r="I46" s="3"/>
@@ -8412,12 +8600,12 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="3"/>
     </row>
-    <row r="47" spans="2:18">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="231"/>
+      <c r="F47" s="242"/>
       <c r="G47" s="3"/>
       <c r="H47" s="54"/>
       <c r="I47" s="3"/>
@@ -8431,7 +8619,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="3"/>
     </row>
-    <row r="48" spans="2:18">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
       <c r="D48" s="2" t="s">
@@ -8440,7 +8628,7 @@
       <c r="E48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="232"/>
+      <c r="F48" s="243"/>
       <c r="G48" s="3"/>
       <c r="H48" s="54"/>
       <c r="I48" s="3"/>
@@ -8454,12 +8642,12 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="2:18">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="232"/>
+      <c r="F49" s="243"/>
       <c r="G49" s="3"/>
       <c r="H49" s="54"/>
       <c r="I49" s="3"/>
@@ -8473,12 +8661,12 @@
       <c r="Q49" s="2"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="2:18" ht="7.5" customHeight="1">
+    <row r="50" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="232"/>
+      <c r="F50" s="243"/>
       <c r="G50" s="3"/>
       <c r="H50" s="54"/>
       <c r="I50" s="3"/>
@@ -8492,7 +8680,7 @@
       <c r="Q50" s="2"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="2:18" ht="18" customHeight="1">
+    <row r="51" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1"/>
       <c r="C51" s="3"/>
       <c r="D51" s="156" t="s">
@@ -8515,7 +8703,7 @@
       <c r="Q51" s="2"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="2:18" ht="18" customHeight="1">
+    <row r="52" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
       <c r="C52" s="3"/>
       <c r="D52" s="156" t="s">
@@ -8538,7 +8726,7 @@
       <c r="Q52" s="2"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="2:18" ht="18" customHeight="1">
+    <row r="53" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1"/>
       <c r="C53" s="3"/>
       <c r="D53" s="157" t="s">
@@ -8561,7 +8749,7 @@
       <c r="Q53" s="2"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="2:18" ht="18" customHeight="1">
+    <row r="54" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="72"/>
       <c r="C54" s="73"/>
       <c r="D54" s="194" t="s">
@@ -8584,7 +8772,7 @@
       <c r="Q54" s="71"/>
       <c r="R54" s="73"/>
     </row>
-    <row r="55" spans="2:18">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="1">
         <v>5</v>
       </c>
@@ -8595,8 +8783,8 @@
       <c r="E55" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="229" t="s">
-        <v>143</v>
+      <c r="F55" s="244" t="s">
+        <v>141</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="54"/>
@@ -8605,18 +8793,18 @@
       <c r="K55" s="196"/>
       <c r="L55" s="159"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="229"/>
-      <c r="O55" s="230"/>
-      <c r="P55" s="230"/>
-      <c r="Q55" s="230"/>
+      <c r="N55" s="244"/>
+      <c r="O55" s="245"/>
+      <c r="P55" s="245"/>
+      <c r="Q55" s="245"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="2:18">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="230"/>
+      <c r="F56" s="245"/>
       <c r="G56" s="3"/>
       <c r="H56" s="54"/>
       <c r="I56" s="3"/>
@@ -8624,18 +8812,18 @@
       <c r="K56" s="54"/>
       <c r="L56" s="166"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="230"/>
-      <c r="O56" s="230"/>
-      <c r="P56" s="230"/>
-      <c r="Q56" s="230"/>
+      <c r="N56" s="245"/>
+      <c r="O56" s="245"/>
+      <c r="P56" s="245"/>
+      <c r="Q56" s="245"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="2:18">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="231"/>
+      <c r="F57" s="242"/>
       <c r="G57" s="3"/>
       <c r="H57" s="54"/>
       <c r="I57" s="3"/>
@@ -8643,13 +8831,13 @@
       <c r="K57" s="54"/>
       <c r="L57" s="3"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="230"/>
-      <c r="O57" s="230"/>
-      <c r="P57" s="230"/>
-      <c r="Q57" s="230"/>
+      <c r="N57" s="245"/>
+      <c r="O57" s="245"/>
+      <c r="P57" s="245"/>
+      <c r="Q57" s="245"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="2:18">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B58" s="1"/>
       <c r="C58" s="3"/>
       <c r="D58" s="2" t="s">
@@ -8658,7 +8846,7 @@
       <c r="E58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="232"/>
+      <c r="F58" s="243"/>
       <c r="G58" s="3"/>
       <c r="H58" s="54"/>
       <c r="I58" s="3"/>
@@ -8666,18 +8854,18 @@
       <c r="K58" s="54"/>
       <c r="L58" s="3"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="230"/>
-      <c r="O58" s="230"/>
-      <c r="P58" s="230"/>
-      <c r="Q58" s="230"/>
+      <c r="N58" s="245"/>
+      <c r="O58" s="245"/>
+      <c r="P58" s="245"/>
+      <c r="Q58" s="245"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="2:18">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="1"/>
       <c r="C59" s="3"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="232"/>
+      <c r="F59" s="243"/>
       <c r="G59" s="3"/>
       <c r="H59" s="54"/>
       <c r="I59" s="3"/>
@@ -8685,18 +8873,18 @@
       <c r="K59" s="54"/>
       <c r="L59" s="3"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="230"/>
-      <c r="O59" s="230"/>
-      <c r="P59" s="230"/>
-      <c r="Q59" s="230"/>
+      <c r="N59" s="245"/>
+      <c r="O59" s="245"/>
+      <c r="P59" s="245"/>
+      <c r="Q59" s="245"/>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="2:18" ht="7.5" customHeight="1">
+    <row r="60" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="1"/>
       <c r="C60" s="3"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="232"/>
+      <c r="F60" s="243"/>
       <c r="G60" s="3"/>
       <c r="H60" s="54"/>
       <c r="I60" s="3"/>
@@ -8704,13 +8892,13 @@
       <c r="K60" s="54"/>
       <c r="L60" s="3"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="230"/>
-      <c r="O60" s="230"/>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="230"/>
+      <c r="N60" s="245"/>
+      <c r="O60" s="245"/>
+      <c r="P60" s="245"/>
+      <c r="Q60" s="245"/>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="2:18" ht="18" customHeight="1">
+    <row r="61" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
       <c r="C61" s="3"/>
       <c r="D61" s="156" t="s">
@@ -8727,13 +8915,13 @@
       <c r="K61" s="54"/>
       <c r="L61" s="3"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="230"/>
-      <c r="O61" s="230"/>
-      <c r="P61" s="230"/>
-      <c r="Q61" s="230"/>
+      <c r="N61" s="245"/>
+      <c r="O61" s="245"/>
+      <c r="P61" s="245"/>
+      <c r="Q61" s="245"/>
       <c r="R61" s="3"/>
     </row>
-    <row r="62" spans="2:18" ht="18" customHeight="1">
+    <row r="62" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="1"/>
       <c r="C62" s="3"/>
       <c r="D62" s="156" t="s">
@@ -8750,13 +8938,13 @@
       <c r="K62" s="54"/>
       <c r="L62" s="3"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="230"/>
-      <c r="O62" s="230"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="230"/>
+      <c r="N62" s="245"/>
+      <c r="O62" s="245"/>
+      <c r="P62" s="245"/>
+      <c r="Q62" s="245"/>
       <c r="R62" s="3"/>
     </row>
-    <row r="63" spans="2:18" ht="18" customHeight="1">
+    <row r="63" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="1"/>
       <c r="C63" s="3"/>
       <c r="D63" s="157" t="s">
@@ -8773,13 +8961,13 @@
       <c r="K63" s="54"/>
       <c r="L63" s="3"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="230"/>
-      <c r="O63" s="230"/>
-      <c r="P63" s="230"/>
-      <c r="Q63" s="230"/>
+      <c r="N63" s="245"/>
+      <c r="O63" s="245"/>
+      <c r="P63" s="245"/>
+      <c r="Q63" s="245"/>
       <c r="R63" s="3"/>
     </row>
-    <row r="64" spans="2:18" ht="18" customHeight="1">
+    <row r="64" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="1"/>
       <c r="C64" s="3"/>
       <c r="D64" s="157" t="s">
@@ -8796,13 +8984,13 @@
       <c r="K64" s="54"/>
       <c r="L64" s="3"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="230"/>
-      <c r="O64" s="230"/>
-      <c r="P64" s="230"/>
-      <c r="Q64" s="230"/>
+      <c r="N64" s="245"/>
+      <c r="O64" s="245"/>
+      <c r="P64" s="245"/>
+      <c r="Q64" s="245"/>
       <c r="R64" s="3"/>
     </row>
-    <row r="65" spans="2:18" hidden="1">
+    <row r="65" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B65" s="1"/>
       <c r="C65" s="3"/>
       <c r="D65" s="2"/>
@@ -8815,13 +9003,13 @@
       <c r="K65" s="54"/>
       <c r="L65" s="3"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="230"/>
-      <c r="O65" s="230"/>
-      <c r="P65" s="230"/>
-      <c r="Q65" s="230"/>
+      <c r="N65" s="245"/>
+      <c r="O65" s="245"/>
+      <c r="P65" s="245"/>
+      <c r="Q65" s="245"/>
       <c r="R65" s="3"/>
     </row>
-    <row r="66" spans="2:18" hidden="1">
+    <row r="66" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="B66" s="1"/>
       <c r="C66" s="3"/>
       <c r="D66" s="78"/>
@@ -8834,13 +9022,13 @@
       <c r="K66" s="54"/>
       <c r="L66" s="3"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="230"/>
-      <c r="O66" s="230"/>
-      <c r="P66" s="230"/>
-      <c r="Q66" s="230"/>
+      <c r="N66" s="245"/>
+      <c r="O66" s="245"/>
+      <c r="P66" s="245"/>
+      <c r="Q66" s="245"/>
       <c r="R66" s="3"/>
     </row>
-    <row r="67" spans="2:18" ht="4.5" customHeight="1">
+    <row r="67" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="72"/>
       <c r="C67" s="73"/>
       <c r="D67" s="71"/>
@@ -8859,7 +9047,7 @@
       <c r="Q67" s="71"/>
       <c r="R67" s="73"/>
     </row>
-    <row r="68" spans="2:18">
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <v>6</v>
       </c>
@@ -8870,7 +9058,7 @@
       <c r="E68" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="229"/>
+      <c r="F68" s="244"/>
       <c r="G68" s="3"/>
       <c r="H68" s="54"/>
       <c r="I68" s="3"/>
@@ -8878,17 +9066,17 @@
       <c r="K68" s="196"/>
       <c r="L68" s="159"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="229"/>
-      <c r="O68" s="230"/>
-      <c r="P68" s="230"/>
-      <c r="Q68" s="230"/>
-    </row>
-    <row r="69" spans="2:18">
+      <c r="N68" s="244"/>
+      <c r="O68" s="245"/>
+      <c r="P68" s="245"/>
+      <c r="Q68" s="245"/>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="230"/>
+      <c r="F69" s="245"/>
       <c r="G69" s="3"/>
       <c r="H69" s="54"/>
       <c r="I69" s="3"/>
@@ -8896,17 +9084,17 @@
       <c r="K69" s="54"/>
       <c r="L69" s="166"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="230"/>
-      <c r="O69" s="230"/>
-      <c r="P69" s="230"/>
-      <c r="Q69" s="230"/>
-    </row>
-    <row r="70" spans="2:18">
+      <c r="N69" s="245"/>
+      <c r="O69" s="245"/>
+      <c r="P69" s="245"/>
+      <c r="Q69" s="245"/>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="231"/>
+      <c r="F70" s="242"/>
       <c r="G70" s="3"/>
       <c r="H70" s="54"/>
       <c r="I70" s="3"/>
@@ -8914,12 +9102,12 @@
       <c r="K70" s="54"/>
       <c r="L70" s="3"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="230"/>
-      <c r="O70" s="230"/>
-      <c r="P70" s="230"/>
-      <c r="Q70" s="230"/>
-    </row>
-    <row r="71" spans="2:18">
+      <c r="N70" s="245"/>
+      <c r="O70" s="245"/>
+      <c r="P70" s="245"/>
+      <c r="Q70" s="245"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
       <c r="C71" s="3"/>
       <c r="D71" s="2" t="s">
@@ -8928,7 +9116,7 @@
       <c r="E71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="232"/>
+      <c r="F71" s="243"/>
       <c r="G71" s="3"/>
       <c r="H71" s="54"/>
       <c r="I71" s="3"/>
@@ -8936,17 +9124,17 @@
       <c r="K71" s="54"/>
       <c r="L71" s="3"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="230"/>
-      <c r="O71" s="230"/>
-      <c r="P71" s="230"/>
-      <c r="Q71" s="230"/>
-    </row>
-    <row r="72" spans="2:18">
+      <c r="N71" s="245"/>
+      <c r="O71" s="245"/>
+      <c r="P71" s="245"/>
+      <c r="Q71" s="245"/>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="232"/>
+      <c r="F72" s="243"/>
       <c r="G72" s="3"/>
       <c r="H72" s="54"/>
       <c r="I72" s="3"/>
@@ -8954,17 +9142,17 @@
       <c r="K72" s="54"/>
       <c r="L72" s="3"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="230"/>
-      <c r="O72" s="230"/>
-      <c r="P72" s="230"/>
-      <c r="Q72" s="230"/>
-    </row>
-    <row r="73" spans="2:18">
+      <c r="N72" s="245"/>
+      <c r="O72" s="245"/>
+      <c r="P72" s="245"/>
+      <c r="Q72" s="245"/>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="232"/>
+      <c r="F73" s="243"/>
       <c r="G73" s="3"/>
       <c r="H73" s="54"/>
       <c r="I73" s="3"/>
@@ -8972,12 +9160,12 @@
       <c r="K73" s="54"/>
       <c r="L73" s="3"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="230"/>
-      <c r="O73" s="230"/>
-      <c r="P73" s="230"/>
-      <c r="Q73" s="230"/>
-    </row>
-    <row r="74" spans="2:18">
+      <c r="N73" s="245"/>
+      <c r="O73" s="245"/>
+      <c r="P73" s="245"/>
+      <c r="Q73" s="245"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
       <c r="C74" s="3"/>
       <c r="D74" s="156" t="s">
@@ -8994,12 +9182,12 @@
       <c r="K74" s="54"/>
       <c r="L74" s="3"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="230"/>
-      <c r="O74" s="230"/>
-      <c r="P74" s="230"/>
-      <c r="Q74" s="230"/>
-    </row>
-    <row r="75" spans="2:18">
+      <c r="N74" s="245"/>
+      <c r="O74" s="245"/>
+      <c r="P74" s="245"/>
+      <c r="Q74" s="245"/>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
       <c r="C75" s="3"/>
       <c r="D75" s="156" t="s">
@@ -9016,12 +9204,12 @@
       <c r="K75" s="54"/>
       <c r="L75" s="3"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="230"/>
-      <c r="O75" s="230"/>
-      <c r="P75" s="230"/>
-      <c r="Q75" s="230"/>
-    </row>
-    <row r="76" spans="2:18">
+      <c r="N75" s="245"/>
+      <c r="O75" s="245"/>
+      <c r="P75" s="245"/>
+      <c r="Q75" s="245"/>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
       <c r="C76" s="3"/>
       <c r="D76" s="157" t="s">
@@ -9038,12 +9226,12 @@
       <c r="K76" s="54"/>
       <c r="L76" s="3"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="230"/>
-      <c r="O76" s="230"/>
-      <c r="P76" s="230"/>
-      <c r="Q76" s="230"/>
-    </row>
-    <row r="77" spans="2:18">
+      <c r="N76" s="245"/>
+      <c r="O76" s="245"/>
+      <c r="P76" s="245"/>
+      <c r="Q76" s="245"/>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
       <c r="C77" s="3"/>
       <c r="D77" s="157" t="s">
@@ -9060,12 +9248,12 @@
       <c r="K77" s="54"/>
       <c r="L77" s="3"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="230"/>
-      <c r="O77" s="230"/>
-      <c r="P77" s="230"/>
-      <c r="Q77" s="230"/>
-    </row>
-    <row r="78" spans="2:18">
+      <c r="N77" s="245"/>
+      <c r="O77" s="245"/>
+      <c r="P77" s="245"/>
+      <c r="Q77" s="245"/>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
       <c r="C78" s="3"/>
       <c r="D78" s="2"/>
@@ -9078,12 +9266,12 @@
       <c r="K78" s="54"/>
       <c r="L78" s="3"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="230"/>
-      <c r="O78" s="230"/>
-      <c r="P78" s="230"/>
-      <c r="Q78" s="230"/>
-    </row>
-    <row r="79" spans="2:18">
+      <c r="N78" s="245"/>
+      <c r="O78" s="245"/>
+      <c r="P78" s="245"/>
+      <c r="Q78" s="245"/>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
       <c r="C79" s="3"/>
       <c r="D79" s="78"/>
@@ -9096,12 +9284,12 @@
       <c r="K79" s="54"/>
       <c r="L79" s="3"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="230"/>
-      <c r="O79" s="230"/>
-      <c r="P79" s="230"/>
-      <c r="Q79" s="230"/>
-    </row>
-    <row r="80" spans="2:18">
+      <c r="N79" s="245"/>
+      <c r="O79" s="245"/>
+      <c r="P79" s="245"/>
+      <c r="Q79" s="245"/>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="72"/>
       <c r="C80" s="73"/>
       <c r="D80" s="71"/>
@@ -9119,80 +9307,92 @@
       <c r="P80" s="71"/>
       <c r="Q80" s="71"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J81" s="4"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J82" s="4"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J83" s="4"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J84" s="4"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J85" s="4"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J86" s="4"/>
     </row>
-    <row r="87" spans="10:10">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J87" s="4"/>
     </row>
-    <row r="88" spans="10:10">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J88" s="4"/>
     </row>
-    <row r="89" spans="10:10">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J89" s="4"/>
     </row>
-    <row r="90" spans="10:10">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J90" s="4"/>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J91" s="4"/>
     </row>
-    <row r="92" spans="10:10">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J92" s="4"/>
     </row>
-    <row r="93" spans="10:10">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J93" s="4"/>
     </row>
-    <row r="94" spans="10:10">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J94" s="4"/>
     </row>
-    <row r="95" spans="10:10">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J95" s="4"/>
     </row>
-    <row r="96" spans="10:10">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J96" s="4"/>
     </row>
-    <row r="97" spans="10:10">
+    <row r="97" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J97" s="4"/>
     </row>
-    <row r="98" spans="10:10">
+    <row r="98" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J98" s="4"/>
     </row>
-    <row r="99" spans="10:10">
+    <row r="99" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J99" s="4"/>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J100" s="4"/>
     </row>
-    <row r="101" spans="10:10">
+    <row r="101" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J101" s="4"/>
     </row>
-    <row r="102" spans="10:10">
+    <row r="102" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J102" s="4"/>
     </row>
-    <row r="103" spans="10:10">
+    <row r="103" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J103" s="4"/>
     </row>
-    <row r="104" spans="10:10">
+    <row r="104" spans="10:10" x14ac:dyDescent="0.2">
       <c r="J104" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="N68:Q79"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B2:R2"/>
+    <mergeCell ref="B5:R5"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B3:Q4"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="N9:Q20"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:L7"/>
@@ -9200,23 +9400,11 @@
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="F37:F40"/>
-    <mergeCell ref="B2:R2"/>
-    <mergeCell ref="B5:R5"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B3:Q4"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="N9:Q20"/>
-    <mergeCell ref="F9:F10"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="F47:F50"/>
     <mergeCell ref="N55:Q66"/>
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="N22:Q33"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="N68:Q79"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F35:F36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.61" right="0.15748031496063" top="0.47" bottom="0.45" header="0.15748031496063" footer="0.15748031496063"/>
@@ -9239,172 +9427,172 @@
   </sheetPr>
   <dimension ref="B3:Z93"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="3" width="0.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1"/>
-    <col min="5" max="6" width="0.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="6" width="0.85546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.6640625" customWidth="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1"/>
-    <col min="13" max="13" width="7.5" customWidth="1"/>
-    <col min="14" max="14" width="10.5" customWidth="1"/>
-    <col min="15" max="15" width="5.5" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="12" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D3" s="17"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="2:16" ht="13">
+    <row r="4" spans="2:16" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="19"/>
       <c r="E4" s="18"/>
     </row>
-    <row r="7" spans="2:16" s="21" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B7" s="267" t="s">
+    <row r="7" spans="2:16" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="254" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="267"/>
-      <c r="D7" s="267"/>
-      <c r="E7" s="267"/>
-      <c r="F7" s="267"/>
-      <c r="G7" s="267"/>
-      <c r="H7" s="267"/>
-      <c r="I7" s="267"/>
-      <c r="J7" s="267"/>
-      <c r="K7" s="267"/>
-      <c r="L7" s="267"/>
-      <c r="M7" s="267"/>
-      <c r="N7" s="267"/>
-      <c r="O7" s="267"/>
+      <c r="C7" s="254"/>
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="254"/>
+      <c r="G7" s="254"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="254"/>
+      <c r="J7" s="254"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="254"/>
+      <c r="M7" s="254"/>
+      <c r="N7" s="254"/>
+      <c r="O7" s="254"/>
       <c r="P7" s="20"/>
     </row>
-    <row r="8" spans="2:16" s="21" customFormat="1" ht="17">
-      <c r="B8" s="268" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="268"/>
-      <c r="D8" s="268"/>
-      <c r="E8" s="268"/>
-      <c r="F8" s="268"/>
-      <c r="G8" s="268"/>
-      <c r="H8" s="268"/>
-      <c r="I8" s="268"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="268"/>
-      <c r="L8" s="268"/>
-      <c r="M8" s="268"/>
-      <c r="N8" s="268"/>
-      <c r="O8" s="268"/>
+    <row r="8" spans="2:16" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="255" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="255"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="255"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="255"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="255"/>
+      <c r="J8" s="255"/>
+      <c r="K8" s="255"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="255"/>
+      <c r="N8" s="255"/>
+      <c r="O8" s="255"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="2:16" s="21" customFormat="1">
+    <row r="9" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="2:16" s="21" customFormat="1" ht="21" customHeight="1">
-      <c r="B10" s="235" t="s">
+    <row r="10" spans="2:16" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="235"/>
-      <c r="E10" s="235"/>
-      <c r="F10" s="235"/>
-      <c r="G10" s="235"/>
-      <c r="H10" s="235"/>
-      <c r="I10" s="235"/>
-      <c r="J10" s="235"/>
-      <c r="K10" s="235"/>
-      <c r="L10" s="235"/>
-      <c r="M10" s="235"/>
-      <c r="N10" s="235"/>
-      <c r="O10" s="235"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="246"/>
+      <c r="N10" s="246"/>
+      <c r="O10" s="246"/>
       <c r="P10" s="20"/>
     </row>
-    <row r="11" spans="2:16" s="21" customFormat="1" ht="19.5" customHeight="1">
-      <c r="B11" s="272" t="s">
+    <row r="11" spans="2:16" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="263" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="272"/>
-      <c r="D11" s="272"/>
-      <c r="E11" s="272"/>
-      <c r="F11" s="272"/>
-      <c r="G11" s="272"/>
-      <c r="H11" s="272"/>
-      <c r="I11" s="272"/>
-      <c r="J11" s="272"/>
-      <c r="K11" s="272"/>
-      <c r="L11" s="272"/>
-      <c r="M11" s="272"/>
-      <c r="N11" s="272"/>
-      <c r="O11" s="272"/>
+      <c r="C11" s="263"/>
+      <c r="D11" s="263"/>
+      <c r="E11" s="263"/>
+      <c r="F11" s="263"/>
+      <c r="G11" s="263"/>
+      <c r="H11" s="263"/>
+      <c r="I11" s="263"/>
+      <c r="J11" s="263"/>
+      <c r="K11" s="263"/>
+      <c r="L11" s="263"/>
+      <c r="M11" s="263"/>
+      <c r="N11" s="263"/>
+      <c r="O11" s="263"/>
       <c r="P11" s="24"/>
     </row>
-    <row r="12" spans="2:16" s="21" customFormat="1" ht="20" customHeight="1">
-      <c r="B12" s="242" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="242"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="242"/>
-      <c r="N12" s="242"/>
-      <c r="O12" s="242"/>
+    <row r="12" spans="2:16" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="249" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="249"/>
+      <c r="I12" s="249"/>
+      <c r="J12" s="249"/>
+      <c r="K12" s="249"/>
+      <c r="L12" s="249"/>
+      <c r="M12" s="249"/>
+      <c r="N12" s="249"/>
+      <c r="O12" s="249"/>
       <c r="P12" s="20"/>
     </row>
-    <row r="13" spans="2:16" ht="20" customHeight="1">
-      <c r="B13" s="242"/>
-      <c r="C13" s="242"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
-      <c r="M13" s="242"/>
-      <c r="N13" s="242"/>
-      <c r="O13" s="242"/>
-    </row>
-    <row r="15" spans="2:16" s="21" customFormat="1" ht="101.25" customHeight="1">
-      <c r="B15" s="260" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="260"/>
-      <c r="D15" s="260"/>
-      <c r="E15" s="260"/>
-      <c r="F15" s="260"/>
-      <c r="G15" s="260"/>
-      <c r="H15" s="260"/>
-      <c r="I15" s="260"/>
-      <c r="J15" s="260"/>
-      <c r="K15" s="260"/>
-      <c r="L15" s="260"/>
-      <c r="M15" s="260"/>
-      <c r="N15" s="260"/>
-      <c r="O15" s="260"/>
+    <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="249"/>
+      <c r="C13" s="249"/>
+      <c r="D13" s="249"/>
+      <c r="E13" s="249"/>
+      <c r="F13" s="249"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="249"/>
+      <c r="I13" s="249"/>
+      <c r="J13" s="249"/>
+      <c r="K13" s="249"/>
+      <c r="L13" s="249"/>
+      <c r="M13" s="249"/>
+      <c r="N13" s="249"/>
+      <c r="O13" s="249"/>
+    </row>
+    <row r="15" spans="2:16" s="21" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="261" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="261"/>
+      <c r="D15" s="261"/>
+      <c r="E15" s="261"/>
+      <c r="F15" s="261"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="261"/>
+      <c r="I15" s="261"/>
+      <c r="J15" s="261"/>
+      <c r="K15" s="261"/>
+      <c r="L15" s="261"/>
+      <c r="M15" s="261"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="261"/>
       <c r="P15" s="26"/>
     </row>
-    <row r="16" spans="2:16" s="21" customFormat="1" ht="18.75" customHeight="1">
+    <row r="16" spans="2:16" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>5</v>
       </c>
@@ -9425,7 +9613,7 @@
       <c r="O16" s="25"/>
       <c r="P16" s="26"/>
     </row>
-    <row r="17" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1">
+    <row r="17" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="25"/>
       <c r="D17" s="76" t="s">
@@ -9440,7 +9628,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L17" s="164" t="s">
         <v>103</v>
@@ -9452,7 +9640,7 @@
       <c r="O17" s="76"/>
       <c r="P17" s="26"/>
     </row>
-    <row r="18" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1">
+    <row r="18" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="25"/>
       <c r="D18" s="76" t="s">
@@ -9467,7 +9655,7 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L18" s="164" t="s">
         <v>103</v>
@@ -9479,7 +9667,7 @@
       <c r="O18" s="76"/>
       <c r="P18" s="26"/>
     </row>
-    <row r="19" spans="2:16" s="21" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="2:16" s="21" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="25"/>
       <c r="D19" s="76" t="s">
@@ -9494,7 +9682,7 @@
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L19" s="113"/>
       <c r="M19" s="165" t="s">
@@ -9504,7 +9692,7 @@
       <c r="O19" s="76"/>
       <c r="P19" s="26"/>
     </row>
-    <row r="20" spans="2:16" s="21" customFormat="1" ht="17" customHeight="1">
+    <row r="20" spans="2:16" s="21" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="25"/>
       <c r="D20" s="76"/>
@@ -9521,7 +9709,7 @@
       <c r="O20" s="76"/>
       <c r="P20" s="26"/>
     </row>
-    <row r="21" spans="2:16" s="21" customFormat="1" ht="18.75" customHeight="1">
+    <row r="21" spans="2:16" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="27">
         <v>2</v>
       </c>
@@ -9542,26 +9730,26 @@
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
     </row>
-    <row r="22" spans="2:16" s="21" customFormat="1" ht="51.75" customHeight="1">
+    <row r="22" spans="2:16" s="21" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="261" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="261"/>
-      <c r="F22" s="261"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="261"/>
-      <c r="I22" s="261"/>
-      <c r="J22" s="261"/>
-      <c r="K22" s="261"/>
-      <c r="L22" s="261"/>
-      <c r="M22" s="261"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="261"/>
+      <c r="E22" s="262"/>
+      <c r="F22" s="262"/>
+      <c r="G22" s="262"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="262"/>
+      <c r="J22" s="262"/>
+      <c r="K22" s="262"/>
+      <c r="L22" s="262"/>
+      <c r="M22" s="262"/>
+      <c r="N22" s="262"/>
+      <c r="O22" s="262"/>
       <c r="P22" s="26"/>
     </row>
-    <row r="23" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1">
+    <row r="23" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="25"/>
       <c r="D23" s="76" t="s">
@@ -9586,7 +9774,7 @@
       <c r="O23" s="76"/>
       <c r="P23" s="26"/>
     </row>
-    <row r="24" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1">
+    <row r="24" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="25"/>
       <c r="D24" s="76" t="s">
@@ -9611,7 +9799,7 @@
       <c r="O24" s="76"/>
       <c r="P24" s="26"/>
     </row>
-    <row r="25" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1">
+    <row r="25" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="25"/>
       <c r="D25" s="76" t="s">
@@ -9627,7 +9815,7 @@
       <c r="O25" s="76"/>
       <c r="P25" s="26"/>
     </row>
-    <row r="26" spans="2:16" s="21" customFormat="1" ht="10.5" customHeight="1">
+    <row r="26" spans="2:16" s="21" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -9644,24 +9832,24 @@
       <c r="O26" s="95"/>
       <c r="P26" s="26"/>
     </row>
-    <row r="27" spans="2:16" s="39" customFormat="1" ht="30" customHeight="1">
-      <c r="D27" s="269" t="s">
+    <row r="27" spans="2:16" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="270"/>
-      <c r="F27" s="263" t="s">
+      <c r="E27" s="257"/>
+      <c r="F27" s="258" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
-      <c r="I27" s="264"/>
-      <c r="J27" s="263" t="s">
+      <c r="G27" s="259"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="264"/>
+      <c r="K27" s="260"/>
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="2:16" s="41" customFormat="1" ht="20" customHeight="1">
+    <row r="28" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="42" t="s">
         <v>5</v>
       </c>
@@ -9673,13 +9861,13 @@
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="258" t="str">
+      <c r="J28" s="264" t="str">
         <f>Adm!W12</f>
         <v>Lulus</v>
       </c>
-      <c r="K28" s="259"/>
-    </row>
-    <row r="29" spans="2:16" s="41" customFormat="1" ht="20" customHeight="1">
+      <c r="K28" s="265"/>
+    </row>
+    <row r="29" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="46" t="s">
         <v>6</v>
       </c>
@@ -9691,13 +9879,13 @@
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="258" t="str">
+      <c r="J29" s="264" t="str">
         <f>Adm!W13</f>
         <v>Lulus</v>
       </c>
-      <c r="K29" s="259"/>
-    </row>
-    <row r="30" spans="2:16" s="41" customFormat="1" ht="20" customHeight="1">
+      <c r="K29" s="265"/>
+    </row>
+    <row r="30" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="46" t="s">
         <v>7</v>
       </c>
@@ -9709,13 +9897,13 @@
       </c>
       <c r="H30" s="128"/>
       <c r="I30" s="128"/>
-      <c r="J30" s="258" t="str">
+      <c r="J30" s="264" t="str">
         <f>Adm!W14</f>
         <v>Lulus</v>
       </c>
-      <c r="K30" s="259"/>
-    </row>
-    <row r="31" spans="2:16" s="41" customFormat="1" ht="20" customHeight="1">
+      <c r="K30" s="265"/>
+    </row>
+    <row r="31" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="46" t="s">
         <v>8</v>
       </c>
@@ -9727,13 +9915,13 @@
       </c>
       <c r="H31" s="128"/>
       <c r="I31" s="128"/>
-      <c r="J31" s="258" t="str">
+      <c r="J31" s="264" t="str">
         <f>Adm!W15</f>
         <v>Lulus</v>
       </c>
-      <c r="K31" s="259"/>
-    </row>
-    <row r="32" spans="2:16" s="41" customFormat="1" ht="19" customHeight="1">
+      <c r="K31" s="265"/>
+    </row>
+    <row r="32" spans="2:16" s="41" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="46" t="s">
         <v>9</v>
       </c>
@@ -9745,13 +9933,13 @@
       </c>
       <c r="H32" s="128"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="258" t="str">
+      <c r="J32" s="264" t="str">
         <f>Resume!G12</f>
         <v>Gugur</v>
       </c>
-      <c r="K32" s="259"/>
-    </row>
-    <row r="33" spans="2:26" s="41" customFormat="1" ht="14" customHeight="1">
+      <c r="K32" s="265"/>
+    </row>
+    <row r="33" spans="2:26" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="46" t="s">
         <v>9</v>
       </c>
@@ -9763,22 +9951,22 @@
       </c>
       <c r="H33" s="128"/>
       <c r="I33" s="47"/>
-      <c r="J33" s="258" t="e">
+      <c r="J33" s="264" t="e">
         <f>Resume!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="259"/>
-      <c r="L33" s="258" t="e">
+      <c r="K33" s="265"/>
+      <c r="L33" s="264" t="e">
         <f>Resume!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M33" s="259"/>
+      <c r="M33" s="265"/>
       <c r="N33" s="49" t="e">
         <f>Resume!#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="2:26" s="7" customFormat="1" ht="16" customHeight="1">
+    <row r="34" spans="2:26" s="7" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D34" s="29"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -9791,7 +9979,7 @@
       <c r="M34" s="30"/>
       <c r="N34" s="31"/>
     </row>
-    <row r="35" spans="2:26" s="7" customFormat="1" ht="12.75" customHeight="1">
+    <row r="35" spans="2:26" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="150" t="s">
         <v>95</v>
       </c>
@@ -9806,14 +9994,14 @@
       <c r="M35" s="30"/>
       <c r="N35" s="31"/>
     </row>
-    <row r="36" spans="2:26" s="21" customFormat="1" ht="12" customHeight="1"/>
-    <row r="37" spans="2:26" s="21" customFormat="1" ht="82.5" customHeight="1"/>
-    <row r="38" spans="2:26" s="21" customFormat="1" ht="13.5" customHeight="1">
-      <c r="M38" s="262" t="s">
+    <row r="36" spans="2:26" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:26" s="21" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:26" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="N38" s="262"/>
-      <c r="O38" s="262"/>
+      <c r="N38" s="272"/>
+      <c r="O38" s="272"/>
       <c r="P38" s="152"/>
       <c r="Q38" s="152"/>
       <c r="R38" s="152"/>
@@ -9826,14 +10014,14 @@
       <c r="Y38" s="152"/>
       <c r="Z38" s="152"/>
     </row>
-    <row r="39" spans="2:26" s="21" customFormat="1" ht="13">
-      <c r="L39" s="257" t="str">
+    <row r="39" spans="2:26" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="L39" s="271" t="str">
         <f>B8</f>
-        <v>No..../..../PPBJ-P.../....</v>
-      </c>
-      <c r="M39" s="257"/>
-      <c r="N39" s="257"/>
-      <c r="O39" s="257"/>
+        <v>No. #nobapq#</v>
+      </c>
+      <c r="M39" s="271"/>
+      <c r="N39" s="271"/>
+      <c r="O39" s="271"/>
       <c r="P39" s="153"/>
       <c r="Q39" s="153"/>
       <c r="R39" s="153"/>
@@ -9846,7 +10034,7 @@
       <c r="Y39" s="153"/>
       <c r="Z39" s="153"/>
     </row>
-    <row r="40" spans="2:26" s="21" customFormat="1" ht="13">
+    <row r="40" spans="2:26" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M40" s="154"/>
       <c r="N40" s="154"/>
       <c r="O40" s="154"/>
@@ -9862,7 +10050,7 @@
       <c r="Y40" s="153"/>
       <c r="Z40" s="153"/>
     </row>
-    <row r="41" spans="2:26" s="21" customFormat="1" ht="33.75" customHeight="1">
+    <row r="41" spans="2:26" s="21" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M41" s="154"/>
       <c r="N41" s="154"/>
       <c r="O41" s="154"/>
@@ -9878,77 +10066,77 @@
       <c r="Y41" s="153"/>
       <c r="Z41" s="153"/>
     </row>
-    <row r="42" spans="2:26" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B42" s="260" t="s">
+    <row r="42" spans="2:26" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="261"/>
-      <c r="D42" s="261"/>
-      <c r="E42" s="261"/>
-      <c r="F42" s="261"/>
-      <c r="G42" s="261"/>
-      <c r="H42" s="261"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="261"/>
-      <c r="K42" s="261"/>
-      <c r="L42" s="261"/>
-      <c r="M42" s="261"/>
-      <c r="N42" s="261"/>
-      <c r="O42" s="261"/>
-    </row>
-    <row r="43" spans="2:26" s="21" customFormat="1" ht="17.25" customHeight="1">
+      <c r="C42" s="262"/>
+      <c r="D42" s="262"/>
+      <c r="E42" s="262"/>
+      <c r="F42" s="262"/>
+      <c r="G42" s="262"/>
+      <c r="H42" s="262"/>
+      <c r="I42" s="262"/>
+      <c r="J42" s="262"/>
+      <c r="K42" s="262"/>
+      <c r="L42" s="262"/>
+      <c r="M42" s="262"/>
+      <c r="N42" s="262"/>
+      <c r="O42" s="262"/>
+    </row>
+    <row r="43" spans="2:26" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="32"/>
       <c r="C43"/>
       <c r="D43"/>
     </row>
-    <row r="44" spans="2:26" s="21" customFormat="1" ht="14.25" customHeight="1">
+    <row r="44" spans="2:26" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="94"/>
       <c r="C44" s="93"/>
       <c r="D44" s="93"/>
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
-      <c r="H44" s="266" t="s">
-        <v>147</v>
-      </c>
-      <c r="I44" s="266"/>
-      <c r="J44" s="266"/>
-      <c r="K44" s="266"/>
-      <c r="L44" s="266"/>
-      <c r="M44" s="266"/>
-      <c r="N44" s="266"/>
-      <c r="O44" s="266"/>
-    </row>
-    <row r="45" spans="2:26" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="H44" s="267" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="267"/>
+      <c r="J44" s="267"/>
+      <c r="K44" s="267"/>
+      <c r="L44" s="267"/>
+      <c r="M44" s="267"/>
+      <c r="N44" s="267"/>
+      <c r="O44" s="267"/>
+    </row>
+    <row r="45" spans="2:26" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="94"/>
       <c r="C45" s="93"/>
       <c r="D45" s="93"/>
       <c r="E45" s="93"/>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
-      <c r="H45" s="266"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="266"/>
-      <c r="K45" s="266"/>
-      <c r="L45" s="266"/>
-      <c r="M45" s="266"/>
-      <c r="N45" s="266"/>
-      <c r="O45" s="266"/>
-    </row>
-    <row r="46" spans="2:26" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B46" s="265" t="s">
+      <c r="H45" s="267"/>
+      <c r="I45" s="267"/>
+      <c r="J45" s="267"/>
+      <c r="K45" s="267"/>
+      <c r="L45" s="267"/>
+      <c r="M45" s="267"/>
+      <c r="N45" s="267"/>
+      <c r="O45" s="267"/>
+    </row>
+    <row r="46" spans="2:26" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="266" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="265"/>
-      <c r="D46" s="265"/>
-      <c r="E46" s="265"/>
-      <c r="F46" s="265"/>
-      <c r="G46" s="265"/>
+      <c r="C46" s="266"/>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
       <c r="H46" s="129" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="131" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
@@ -9956,7 +10144,7 @@
       <c r="N46" s="34"/>
       <c r="O46" s="34"/>
     </row>
-    <row r="47" spans="2:26" s="35" customFormat="1" ht="13">
+    <row r="47" spans="2:26" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B47" s="33"/>
       <c r="C47" s="34"/>
       <c r="E47" s="34"/>
@@ -9973,22 +10161,22 @@
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
     </row>
-    <row r="48" spans="2:26" s="37" customFormat="1" ht="13">
+    <row r="48" spans="2:26" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B48" s="36"/>
     </row>
-    <row r="49" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="49" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="36"/>
     </row>
-    <row r="50" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="50" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="36"/>
       <c r="H50" s="130" t="s">
         <v>6</v>
       </c>
       <c r="I50" s="132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" s="37" customFormat="1" ht="13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B51" s="36"/>
       <c r="I51" s="151" t="s">
         <v>18</v>
@@ -9997,36 +10185,36 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="2:13" s="37" customFormat="1" ht="13">
-      <c r="B52" s="254" t="s">
-        <v>149</v>
-      </c>
-      <c r="C52" s="254"/>
-      <c r="D52" s="254"/>
-      <c r="E52" s="254"/>
-      <c r="F52" s="254"/>
-      <c r="G52" s="254"/>
-    </row>
-    <row r="53" spans="2:13" s="37" customFormat="1" ht="13">
-      <c r="B53" s="255" t="s">
-        <v>150</v>
-      </c>
-      <c r="C53" s="256"/>
-      <c r="D53" s="256"/>
-      <c r="E53" s="256"/>
-      <c r="F53" s="256"/>
-      <c r="G53" s="256"/>
-    </row>
-    <row r="54" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="52" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="268" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="268"/>
+      <c r="D52" s="268"/>
+      <c r="E52" s="268"/>
+      <c r="F52" s="268"/>
+      <c r="G52" s="268"/>
+    </row>
+    <row r="53" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B53" s="269" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="270"/>
+      <c r="D53" s="270"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="270"/>
+      <c r="G53" s="270"/>
+    </row>
+    <row r="54" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="36"/>
       <c r="H54" s="130" t="s">
         <v>7</v>
       </c>
       <c r="I54" s="132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" s="37" customFormat="1" ht="13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="36"/>
       <c r="I55" s="37" t="s">
         <v>19</v>
@@ -10035,52 +10223,52 @@
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="56" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="36"/>
     </row>
-    <row r="57" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="57" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B57" s="36"/>
     </row>
-    <row r="58" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="58" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B58" s="36"/>
       <c r="H58" s="130"/>
       <c r="I58" s="132"/>
     </row>
-    <row r="59" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="59" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B59" s="36"/>
       <c r="M59" s="34"/>
     </row>
-    <row r="60" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="60" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B60" s="36"/>
     </row>
-    <row r="61" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="61" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="36"/>
     </row>
-    <row r="62" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="62" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B62" s="36"/>
       <c r="H62" s="130"/>
       <c r="I62" s="132"/>
     </row>
-    <row r="63" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="63" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B63" s="36"/>
       <c r="M63" s="34"/>
     </row>
-    <row r="64" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="64" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B64" s="36"/>
     </row>
-    <row r="65" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="65" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="36"/>
     </row>
-    <row r="66" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="66" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H66" s="211"/>
       <c r="I66" s="132"/>
     </row>
-    <row r="67" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="67" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="M67" s="34"/>
     </row>
-    <row r="68" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="69" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="70" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="68" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="H70" s="211" t="s">
         <v>114</v>
       </c>
@@ -10088,7 +10276,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="2:13" s="37" customFormat="1" ht="13">
+    <row r="71" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="I71" s="37" t="s">
         <v>19</v>
       </c>
@@ -10096,30 +10284,45 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="73" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="74" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="75" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="76" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="77" spans="2:13" s="37" customFormat="1" ht="13"/>
-    <row r="78" spans="2:13" s="38" customFormat="1" ht="13"/>
-    <row r="79" spans="2:13" s="38" customFormat="1" ht="13"/>
-    <row r="80" spans="2:13" s="38" customFormat="1" ht="13"/>
-    <row r="81" s="38" customFormat="1" ht="13"/>
-    <row r="82" s="38" customFormat="1" ht="13"/>
-    <row r="83" s="38" customFormat="1" ht="13"/>
-    <row r="84" s="38" customFormat="1" ht="13"/>
-    <row r="85" s="38" customFormat="1" ht="13"/>
-    <row r="86" s="38" customFormat="1" ht="13"/>
-    <row r="87" s="38" customFormat="1" ht="13"/>
-    <row r="88" s="38" customFormat="1" ht="13"/>
-    <row r="89" s="38" customFormat="1" ht="13"/>
-    <row r="90" s="38" customFormat="1" ht="13"/>
-    <row r="91" s="38" customFormat="1" ht="13"/>
-    <row r="92" s="38" customFormat="1" ht="13"/>
-    <row r="93" s="38" customFormat="1" ht="13"/>
+    <row r="72" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="2:13" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="81" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="82" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="83" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="84" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="85" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="86" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="87" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="88" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="89" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="90" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="91" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="92" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="93" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B42:O42"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H44:O45"/>
     <mergeCell ref="B7:O7"/>
     <mergeCell ref="B8:O8"/>
     <mergeCell ref="D27:E27"/>
@@ -10129,21 +10332,6 @@
     <mergeCell ref="B11:O11"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="B12:O13"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B42:O42"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="J31:K31"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.38" right="0.67" top="0.37" bottom="0.81" header="0.17" footer="0.32"/>
@@ -10164,28 +10352,28 @@
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="8" customWidth="1"/>
-    <col min="3" max="4" width="0.83203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="34.5" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="3.1640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="8" customWidth="1"/>
+    <col min="3" max="4" width="0.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="3.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="3" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1640625" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" ht="17">
+    <row r="2" spans="2:17" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="273" t="s">
         <v>78</v>
       </c>
@@ -10205,18 +10393,18 @@
       <c r="P2" s="101"/>
       <c r="Q2" s="101"/>
     </row>
-    <row r="3" spans="2:17" ht="39.75" customHeight="1">
-      <c r="B3" s="242" t="str">
+    <row r="3" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="249" t="str">
         <f>BA!B12</f>
-        <v>PEKERJAAN...........................................</v>
-      </c>
-      <c r="C3" s="242"/>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
       <c r="J3" s="209"/>
       <c r="K3" s="209"/>
       <c r="L3" s="209"/>
@@ -10226,7 +10414,7 @@
       <c r="P3" s="100"/>
       <c r="Q3" s="100"/>
     </row>
-    <row r="5" spans="2:17" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="2:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="274" t="s">
         <v>0</v>
       </c>
@@ -10251,7 +10439,7 @@
       <c r="O5" s="138"/>
       <c r="P5" s="138"/>
     </row>
-    <row r="6" spans="2:17" s="7" customFormat="1" ht="12.75" customHeight="1">
+    <row r="6" spans="2:17" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="276"/>
       <c r="C6" s="277"/>
       <c r="D6" s="282"/>
@@ -10267,7 +10455,7 @@
       <c r="L6" s="139"/>
       <c r="M6" s="139"/>
     </row>
-    <row r="7" spans="2:17" s="7" customFormat="1" ht="24">
+    <row r="7" spans="2:17" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="278"/>
       <c r="C7" s="279"/>
       <c r="D7" s="283"/>
@@ -10287,7 +10475,7 @@
       <c r="L7" s="140"/>
       <c r="M7" s="140"/>
     </row>
-    <row r="8" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="214" t="s">
         <v>27</v>
       </c>
@@ -10318,7 +10506,7 @@
       </c>
       <c r="O8" s="112"/>
     </row>
-    <row r="9" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="214" t="s">
         <v>29</v>
       </c>
@@ -10349,7 +10537,7 @@
       </c>
       <c r="O9" s="112"/>
     </row>
-    <row r="10" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="220" t="s">
         <v>30</v>
       </c>
@@ -10377,7 +10565,7 @@
       <c r="N10" s="111"/>
       <c r="O10" s="112"/>
     </row>
-    <row r="11" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="227" t="s">
         <v>110</v>
       </c>
@@ -10405,7 +10593,7 @@
       <c r="N11" s="111"/>
       <c r="O11" s="112"/>
     </row>
-    <row r="12" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="227" t="s">
         <v>131</v>
       </c>
@@ -10431,7 +10619,7 @@
       <c r="N12" s="111"/>
       <c r="O12" s="112"/>
     </row>
-    <row r="13" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="2:17" s="110" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="162" t="s">
         <v>117</v>
       </c>
@@ -10450,7 +10638,7 @@
       <c r="O13" s="111"/>
       <c r="P13" s="112"/>
     </row>
-    <row r="14" spans="2:17" ht="18" customHeight="1">
+    <row r="14" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="162" t="s">
         <v>118</v>
       </c>
@@ -10471,7 +10659,7 @@
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
     </row>
-    <row r="15" spans="2:17" ht="18" customHeight="1">
+    <row r="15" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="161" t="s">
         <v>119</v>
       </c>
@@ -10492,7 +10680,7 @@
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
     </row>
-    <row r="16" spans="2:17" ht="18" customHeight="1">
+    <row r="16" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="161" t="s">
         <v>120</v>
       </c>
@@ -10513,7 +10701,7 @@
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
     </row>
-    <row r="17" spans="2:17" ht="18" customHeight="1">
+    <row r="17" spans="2:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="161" t="s">
         <v>121</v>
       </c>
@@ -10534,7 +10722,7 @@
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
     </row>
-    <row r="18" spans="2:17" s="7" customFormat="1" ht="3.75" customHeight="1">
+    <row r="18" spans="2:17" s="7" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="65"/>
       <c r="C18" s="65"/>
       <c r="D18" s="65"/>
@@ -10543,7 +10731,7 @@
       <c r="I18" s="66"/>
       <c r="M18" s="66"/>
     </row>
-    <row r="19" spans="2:17" s="7" customFormat="1" hidden="1">
+    <row r="19" spans="2:17" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="102"/>
@@ -10559,7 +10747,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:17" s="7" customFormat="1">
+    <row r="20" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C20" s="65"/>
       <c r="D20" s="65"/>
       <c r="E20" s="102"/>
@@ -10571,7 +10759,7 @@
       <c r="L20" s="120"/>
       <c r="M20" s="121"/>
     </row>
-    <row r="21" spans="2:17" s="7" customFormat="1">
+    <row r="21" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C21" s="65"/>
       <c r="D21" s="65"/>
       <c r="E21" s="102"/>
@@ -10583,7 +10771,7 @@
       <c r="L21" s="120"/>
       <c r="M21" s="121"/>
     </row>
-    <row r="22" spans="2:17" s="7" customFormat="1">
+    <row r="22" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C22" s="65"/>
       <c r="D22" s="65"/>
       <c r="E22" s="102"/>
@@ -10595,7 +10783,7 @@
       <c r="L22" s="120"/>
       <c r="M22" s="121"/>
     </row>
-    <row r="23" spans="2:17" s="7" customFormat="1">
+    <row r="23" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C23" s="65"/>
       <c r="D23" s="65"/>
       <c r="E23" s="102"/>
@@ -10607,7 +10795,7 @@
       <c r="L23" s="120"/>
       <c r="M23" s="121"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="29"/>
       <c r="C24" s="108"/>
       <c r="D24" s="108"/>
@@ -10625,7 +10813,7 @@
       <c r="P24" s="51"/>
       <c r="Q24" s="51"/>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="29"/>
       <c r="C25" s="108"/>
       <c r="D25" s="108"/>
@@ -10643,7 +10831,7 @@
       <c r="P25" s="51"/>
       <c r="Q25" s="51"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="29"/>
       <c r="C26" s="108"/>
       <c r="D26" s="108"/>
@@ -10661,7 +10849,7 @@
       <c r="P26" s="51"/>
       <c r="Q26" s="51"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="29"/>
       <c r="C27" s="108"/>
       <c r="D27" s="108"/>
@@ -10679,7 +10867,7 @@
       <c r="P27" s="51"/>
       <c r="Q27" s="51"/>
     </row>
-    <row r="28" spans="2:17">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="29"/>
       <c r="C28" s="108"/>
       <c r="D28" s="108"/>
@@ -10697,7 +10885,7 @@
       <c r="P28" s="51"/>
       <c r="Q28" s="51"/>
     </row>
-    <row r="29" spans="2:17">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="29"/>
       <c r="C29" s="108"/>
       <c r="D29" s="108"/>
@@ -10715,7 +10903,7 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="29"/>
       <c r="C30" s="108"/>
       <c r="D30" s="108"/>
@@ -10733,7 +10921,7 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="51"/>
     </row>
-    <row r="31" spans="2:17" s="7" customFormat="1">
+    <row r="31" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="65"/>
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
@@ -10776,168 +10964,168 @@
       <selection activeCell="B3" sqref="B3:W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="2.5" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="8" max="8" width="21.1640625" customWidth="1"/>
-    <col min="9" max="11" width="8.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="11" width="8.7109375" customWidth="1"/>
     <col min="12" max="12" width="9" customWidth="1"/>
-    <col min="13" max="22" width="8.6640625" customWidth="1"/>
-    <col min="23" max="23" width="10.83203125" customWidth="1"/>
-    <col min="24" max="24" width="9.1640625" customWidth="1"/>
+    <col min="13" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:24" ht="30" customHeight="1">
-      <c r="B3" s="299" t="str">
+    <row r="3" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="307" t="str">
         <f>Resume!B3</f>
-        <v>PEKERJAAN...........................................</v>
-      </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-      <c r="P3" s="299"/>
-      <c r="Q3" s="299"/>
-      <c r="R3" s="299"/>
-      <c r="S3" s="299"/>
-      <c r="T3" s="299"/>
-      <c r="U3" s="299"/>
-      <c r="V3" s="299"/>
-      <c r="W3" s="299"/>
-    </row>
-    <row r="4" spans="2:24" ht="30" customHeight="1">
-      <c r="B4" s="242" t="s">
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="C3" s="307"/>
+      <c r="D3" s="307"/>
+      <c r="E3" s="307"/>
+      <c r="F3" s="307"/>
+      <c r="G3" s="307"/>
+      <c r="H3" s="307"/>
+      <c r="I3" s="307"/>
+      <c r="J3" s="307"/>
+      <c r="K3" s="307"/>
+      <c r="L3" s="307"/>
+      <c r="M3" s="307"/>
+      <c r="N3" s="307"/>
+      <c r="O3" s="307"/>
+      <c r="P3" s="307"/>
+      <c r="Q3" s="307"/>
+      <c r="R3" s="307"/>
+      <c r="S3" s="307"/>
+      <c r="T3" s="307"/>
+      <c r="U3" s="307"/>
+      <c r="V3" s="307"/>
+      <c r="W3" s="307"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="249" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
-      <c r="N4" s="242"/>
-      <c r="O4" s="242"/>
-      <c r="P4" s="242"/>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="242"/>
-      <c r="S4" s="242"/>
-      <c r="T4" s="242"/>
-      <c r="U4" s="242"/>
-      <c r="V4" s="242"/>
-      <c r="W4" s="242"/>
-    </row>
-    <row r="7" spans="2:24" s="7" customFormat="1" ht="35.25" customHeight="1">
-      <c r="B7" s="305" t="s">
+      <c r="C4" s="249"/>
+      <c r="D4" s="249"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="249"/>
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="249"/>
+      <c r="O4" s="249"/>
+      <c r="P4" s="249"/>
+      <c r="Q4" s="249"/>
+      <c r="R4" s="249"/>
+      <c r="S4" s="249"/>
+      <c r="T4" s="249"/>
+      <c r="U4" s="249"/>
+      <c r="V4" s="249"/>
+      <c r="W4" s="249"/>
+    </row>
+    <row r="7" spans="2:24" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="311" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="306"/>
-      <c r="D7" s="316" t="s">
+      <c r="C7" s="312"/>
+      <c r="D7" s="297" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="317"/>
-      <c r="F7" s="317"/>
-      <c r="G7" s="317"/>
-      <c r="H7" s="318"/>
-      <c r="I7" s="302" t="s">
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="308" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="303"/>
-      <c r="K7" s="303"/>
-      <c r="L7" s="303"/>
-      <c r="M7" s="303"/>
-      <c r="N7" s="303"/>
-      <c r="O7" s="303"/>
-      <c r="P7" s="303"/>
-      <c r="Q7" s="303"/>
-      <c r="R7" s="303"/>
-      <c r="S7" s="303"/>
-      <c r="T7" s="303"/>
-      <c r="U7" s="303"/>
-      <c r="V7" s="304"/>
-      <c r="W7" s="311" t="s">
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
+      <c r="M7" s="309"/>
+      <c r="N7" s="309"/>
+      <c r="O7" s="309"/>
+      <c r="P7" s="309"/>
+      <c r="Q7" s="309"/>
+      <c r="R7" s="309"/>
+      <c r="S7" s="309"/>
+      <c r="T7" s="309"/>
+      <c r="U7" s="309"/>
+      <c r="V7" s="310"/>
+      <c r="W7" s="317" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="2:24" s="7" customFormat="1" ht="43.5" customHeight="1">
-      <c r="B8" s="307"/>
-      <c r="C8" s="308"/>
-      <c r="D8" s="319"/>
-      <c r="E8" s="320"/>
-      <c r="F8" s="320"/>
-      <c r="G8" s="320"/>
-      <c r="H8" s="321"/>
-      <c r="I8" s="295" t="s">
+    <row r="8" spans="2:24" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="313"/>
+      <c r="C8" s="314"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="302"/>
+      <c r="I8" s="293" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="295" t="s">
+      <c r="J8" s="293" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="295" t="s">
+      <c r="K8" s="293" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="300" t="s">
+      <c r="L8" s="295" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="123"/>
-      <c r="N8" s="295" t="s">
+      <c r="N8" s="293" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="313" t="s">
+      <c r="O8" s="319" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="314"/>
-      <c r="Q8" s="313" t="s">
+      <c r="P8" s="320"/>
+      <c r="Q8" s="319" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="315"/>
-      <c r="S8" s="314"/>
-      <c r="T8" s="300" t="s">
+      <c r="R8" s="321"/>
+      <c r="S8" s="320"/>
+      <c r="T8" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="300" t="s">
+      <c r="U8" s="295" t="s">
         <v>63</v>
       </c>
-      <c r="V8" s="295" t="s">
+      <c r="V8" s="293" t="s">
         <v>133</v>
       </c>
-      <c r="W8" s="312"/>
-    </row>
-    <row r="9" spans="2:24" s="7" customFormat="1" ht="117" customHeight="1">
-      <c r="B9" s="307"/>
-      <c r="C9" s="308"/>
-      <c r="D9" s="319"/>
-      <c r="E9" s="320"/>
-      <c r="F9" s="320"/>
-      <c r="G9" s="320"/>
-      <c r="H9" s="321"/>
-      <c r="I9" s="325"/>
-      <c r="J9" s="296"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="301"/>
+      <c r="W8" s="318"/>
+    </row>
+    <row r="9" spans="2:24" s="7" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="313"/>
+      <c r="C9" s="314"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="306"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="296"/>
       <c r="M9" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="296"/>
+      <c r="N9" s="294"/>
       <c r="O9" s="134" t="s">
         <v>60</v>
       </c>
@@ -10953,19 +11141,19 @@
       <c r="S9" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="301"/>
-      <c r="U9" s="301"/>
-      <c r="V9" s="296"/>
-      <c r="W9" s="312"/>
-    </row>
-    <row r="10" spans="2:24" s="7" customFormat="1" ht="9.75" customHeight="1">
-      <c r="B10" s="307"/>
-      <c r="C10" s="308"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="320"/>
-      <c r="F10" s="320"/>
-      <c r="G10" s="320"/>
-      <c r="H10" s="321"/>
+      <c r="T9" s="296"/>
+      <c r="U9" s="296"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="318"/>
+    </row>
+    <row r="10" spans="2:24" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="313"/>
+      <c r="C10" s="314"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="302"/>
       <c r="I10" s="135"/>
       <c r="J10" s="127"/>
       <c r="K10" s="127"/>
@@ -10982,14 +11170,14 @@
       <c r="V10" s="127"/>
       <c r="W10" s="126"/>
     </row>
-    <row r="11" spans="2:24" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B11" s="309"/>
-      <c r="C11" s="310"/>
-      <c r="D11" s="322"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-      <c r="G11" s="323"/>
-      <c r="H11" s="324"/>
+    <row r="11" spans="2:24" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="315"/>
+      <c r="C11" s="316"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="304"/>
+      <c r="F11" s="304"/>
+      <c r="G11" s="304"/>
+      <c r="H11" s="305"/>
       <c r="I11" s="118">
         <v>1</v>
       </c>
@@ -11036,19 +11224,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="114" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="115"/>
       <c r="D12" s="114"/>
-      <c r="E12" s="297" t="str">
+      <c r="E12" s="324" t="str">
         <f>Resume!E8</f>
         <v>.......................</v>
       </c>
-      <c r="F12" s="297"/>
-      <c r="G12" s="297"/>
-      <c r="H12" s="298"/>
+      <c r="F12" s="324"/>
+      <c r="G12" s="324"/>
+      <c r="H12" s="325"/>
       <c r="I12" s="116" t="s">
         <v>57</v>
       </c>
@@ -11100,19 +11288,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="114" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="114"/>
-      <c r="E13" s="297" t="str">
+      <c r="E13" s="324" t="str">
         <f>Resume!E9</f>
         <v>PT A</v>
       </c>
-      <c r="F13" s="297"/>
-      <c r="G13" s="297"/>
-      <c r="H13" s="298"/>
+      <c r="F13" s="324"/>
+      <c r="G13" s="324"/>
+      <c r="H13" s="325"/>
       <c r="I13" s="116" t="s">
         <v>57</v>
       </c>
@@ -11164,19 +11352,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="114" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="115"/>
       <c r="D14" s="114"/>
-      <c r="E14" s="297" t="str">
+      <c r="E14" s="324" t="str">
         <f>Resume!E10</f>
         <v>PT B</v>
       </c>
-      <c r="F14" s="297"/>
-      <c r="G14" s="297"/>
-      <c r="H14" s="298"/>
+      <c r="F14" s="324"/>
+      <c r="G14" s="324"/>
+      <c r="H14" s="325"/>
       <c r="I14" s="116" t="s">
         <v>57</v>
       </c>
@@ -11228,19 +11416,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="114" t="s">
         <v>110</v>
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="114"/>
-      <c r="E15" s="293" t="str">
+      <c r="E15" s="322" t="str">
         <f>Resume!E11</f>
         <v>PT C</v>
       </c>
-      <c r="F15" s="293"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="294"/>
+      <c r="F15" s="322"/>
+      <c r="G15" s="322"/>
+      <c r="H15" s="323"/>
       <c r="I15" s="116" t="s">
         <v>57</v>
       </c>
@@ -11292,19 +11480,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:24" s="110" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="212" t="s">
         <v>131</v>
       </c>
       <c r="C16" s="212"/>
       <c r="D16" s="212"/>
-      <c r="E16" s="293" t="str">
+      <c r="E16" s="322" t="str">
         <f>Resume!E12</f>
         <v>PT D</v>
       </c>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="294"/>
+      <c r="F16" s="322"/>
+      <c r="G16" s="322"/>
+      <c r="H16" s="323"/>
       <c r="I16" s="116" t="s">
         <v>57</v>
       </c>
@@ -11356,7 +11544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:23" s="7" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="2:23" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="96" t="s">
         <v>85</v>
       </c>
@@ -11382,65 +11570,66 @@
       <c r="V17" s="99"/>
       <c r="W17" s="99"/>
     </row>
-    <row r="18" spans="2:23" ht="24.75" customHeight="1"/>
-    <row r="19" spans="2:23">
+    <row r="18" spans="2:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="9"/>
     </row>
-    <row r="20" spans="2:23">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
     </row>
-    <row r="21" spans="2:23">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
     </row>
-    <row r="22" spans="2:23">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B22" s="9"/>
     </row>
-    <row r="23" spans="2:23">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B23" s="9"/>
     </row>
-    <row r="24" spans="2:23">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:23">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="2:23">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:23">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:23">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:23">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:23">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:23">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B32" s="9"/>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="9"/>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="D7:H11"/>
-    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E12:H12"/>
     <mergeCell ref="B3:W3"/>
     <mergeCell ref="B4:W4"/>
     <mergeCell ref="T8:T9"/>
@@ -11451,12 +11640,11 @@
     <mergeCell ref="V8:V9"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="D7:H11"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11476,132 +11664,132 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" workbookViewId="0">
       <pane xSplit="5" ySplit="5" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="F4" sqref="F4"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5:Q5"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" customWidth="1"/>
-    <col min="3" max="3" width="0.83203125" customWidth="1"/>
-    <col min="4" max="4" width="1.5" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="1" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="26.42578125" customWidth="1"/>
     <col min="11" max="11" width="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="11.83203125" style="103" customWidth="1"/>
-    <col min="16" max="16" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.85546875" style="103" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="8"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="2:17" s="21" customFormat="1" ht="29.25" customHeight="1">
-      <c r="B4" s="299" t="str">
+    <row r="4" spans="2:17" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="307" t="str">
         <f>Resume!B3</f>
-        <v>PEKERJAAN...........................................</v>
-      </c>
-      <c r="C4" s="272"/>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
-      <c r="P4" s="272"/>
-      <c r="Q4" s="272"/>
-    </row>
-    <row r="5" spans="2:17" s="21" customFormat="1" ht="39" customHeight="1">
-      <c r="B5" s="340" t="s">
+        <v>PEKERJAAN #namapengadaan#</v>
+      </c>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
+      <c r="E4" s="263"/>
+      <c r="F4" s="263"/>
+      <c r="G4" s="263"/>
+      <c r="H4" s="263"/>
+      <c r="I4" s="263"/>
+      <c r="J4" s="263"/>
+      <c r="K4" s="263"/>
+      <c r="L4" s="263"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="263"/>
+      <c r="O4" s="263"/>
+      <c r="P4" s="263"/>
+      <c r="Q4" s="263"/>
+    </row>
+    <row r="5" spans="2:17" s="21" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="351" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="340"/>
-      <c r="D5" s="340"/>
-      <c r="E5" s="340"/>
-      <c r="F5" s="340"/>
-      <c r="G5" s="340"/>
-      <c r="H5" s="340"/>
-      <c r="I5" s="340"/>
-      <c r="J5" s="340"/>
-      <c r="K5" s="340"/>
-      <c r="L5" s="340"/>
-      <c r="M5" s="340"/>
-      <c r="N5" s="340"/>
-      <c r="O5" s="340"/>
-      <c r="P5" s="340"/>
-      <c r="Q5" s="340"/>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="C5" s="351"/>
+      <c r="D5" s="351"/>
+      <c r="E5" s="351"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="351"/>
+      <c r="H5" s="351"/>
+      <c r="I5" s="351"/>
+      <c r="J5" s="351"/>
+      <c r="K5" s="351"/>
+      <c r="L5" s="351"/>
+      <c r="M5" s="351"/>
+      <c r="N5" s="351"/>
+      <c r="O5" s="351"/>
+      <c r="P5" s="351"/>
+      <c r="Q5" s="351"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="2:17" s="13" customFormat="1" ht="32.25" customHeight="1">
-      <c r="B7" s="326" t="s">
+    <row r="7" spans="2:17" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="339" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="327"/>
-      <c r="D7" s="326" t="s">
+      <c r="C7" s="340"/>
+      <c r="D7" s="339" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="327"/>
-      <c r="F7" s="238" t="s">
+      <c r="E7" s="340"/>
+      <c r="F7" s="236" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="252"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="338" t="s">
+      <c r="G7" s="237"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="338" t="s">
+      <c r="J7" s="331" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="249" t="s">
+      <c r="K7" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="251"/>
-      <c r="M7" s="250"/>
-      <c r="N7" s="342" t="s">
+      <c r="L7" s="235"/>
+      <c r="M7" s="234"/>
+      <c r="N7" s="327" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="343"/>
-      <c r="P7" s="344" t="s">
+      <c r="O7" s="328"/>
+      <c r="P7" s="329" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="345"/>
-    </row>
-    <row r="8" spans="2:17" s="13" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B8" s="328"/>
-      <c r="C8" s="329"/>
-      <c r="D8" s="328"/>
-      <c r="E8" s="329"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="331"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="336" t="s">
+      <c r="Q7" s="330"/>
+    </row>
+    <row r="8" spans="2:17" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="341"/>
+      <c r="C8" s="342"/>
+      <c r="D8" s="341"/>
+      <c r="E8" s="342"/>
+      <c r="F8" s="343"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="345"/>
+      <c r="I8" s="332"/>
+      <c r="J8" s="332"/>
+      <c r="K8" s="349" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="337"/>
+      <c r="L8" s="350"/>
       <c r="M8" s="16" t="s">
         <v>12</v>
       </c>
@@ -11618,7 +11806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:17" s="7" customFormat="1">
+    <row r="9" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="86" t="s">
         <v>27</v>
       </c>
@@ -11632,7 +11820,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="333" t="s">
+      <c r="H9" s="346" t="s">
         <v>123</v>
       </c>
       <c r="I9" s="197"/>
@@ -11651,14 +11839,14 @@
         <v>Gugur</v>
       </c>
     </row>
-    <row r="10" spans="2:17" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="10" spans="2:17" s="7" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="86"/>
       <c r="C10" s="80"/>
       <c r="D10" s="79"/>
       <c r="E10" s="79"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="334"/>
+      <c r="H10" s="347"/>
       <c r="I10" s="197" t="s">
         <v>112</v>
       </c>
@@ -11670,7 +11858,7 @@
         <v>113</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N10" s="149" t="s">
         <v>113</v>
@@ -11681,14 +11869,14 @@
       <c r="P10" s="84"/>
       <c r="Q10" s="84"/>
     </row>
-    <row r="11" spans="2:17" s="7" customFormat="1">
+    <row r="11" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="87"/>
       <c r="C11" s="88"/>
       <c r="D11" s="89"/>
       <c r="E11" s="89"/>
       <c r="F11" s="53"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="335"/>
+      <c r="H11" s="348"/>
       <c r="I11" s="182"/>
       <c r="J11" s="201"/>
       <c r="K11" s="53"/>
@@ -11699,7 +11887,7 @@
       <c r="P11" s="85"/>
       <c r="Q11" s="85"/>
     </row>
-    <row r="12" spans="2:17" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="2:17" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="183" t="s">
         <v>29</v>
       </c>
@@ -11713,7 +11901,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="172"/>
-      <c r="H12" s="346" t="s">
+      <c r="H12" s="333" t="s">
         <v>125</v>
       </c>
       <c r="I12" s="198" t="s">
@@ -11724,16 +11912,16 @@
       </c>
       <c r="K12" s="171"/>
       <c r="L12" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M12" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P12" s="184">
         <f>MAX(M12:M13)*5</f>
@@ -11744,14 +11932,14 @@
         <v>Gugur</v>
       </c>
     </row>
-    <row r="13" spans="2:17" s="7" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="2:17" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="87"/>
       <c r="C13" s="88"/>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
       <c r="F13" s="53"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="347"/>
+      <c r="H13" s="334"/>
       <c r="I13" s="199"/>
       <c r="J13" s="203"/>
       <c r="K13" s="53"/>
@@ -11762,7 +11950,7 @@
       <c r="P13" s="85"/>
       <c r="Q13" s="85"/>
     </row>
-    <row r="14" spans="2:17" s="7" customFormat="1" ht="24">
+    <row r="14" spans="2:17" s="7" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="86" t="s">
         <v>30</v>
       </c>
@@ -11787,16 +11975,16 @@
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M14" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O14" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P14" s="184">
         <f>MAX(M14:M15)*5</f>
@@ -11807,7 +11995,7 @@
         <v>Gugur</v>
       </c>
     </row>
-    <row r="15" spans="2:17" s="7" customFormat="1">
+    <row r="15" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="86"/>
       <c r="C15" s="80"/>
       <c r="D15" s="79"/>
@@ -11825,7 +12013,7 @@
       <c r="P15" s="84"/>
       <c r="Q15" s="84"/>
     </row>
-    <row r="16" spans="2:17" s="7" customFormat="1">
+    <row r="16" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="86"/>
       <c r="C16" s="80"/>
       <c r="D16" s="79"/>
@@ -11843,7 +12031,7 @@
       <c r="P16" s="84"/>
       <c r="Q16" s="84"/>
     </row>
-    <row r="17" spans="2:17" s="7" customFormat="1">
+    <row r="17" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="168" t="s">
         <v>110</v>
       </c>
@@ -11857,11 +12045,11 @@
         <v>1</v>
       </c>
       <c r="G17" s="172"/>
-      <c r="H17" s="346" t="s">
+      <c r="H17" s="333" t="s">
         <v>129</v>
       </c>
       <c r="I17" s="198"/>
-      <c r="J17" s="349" t="s">
+      <c r="J17" s="336" t="s">
         <v>124</v>
       </c>
       <c r="K17" s="171"/>
@@ -11878,44 +12066,44 @@
         <v>Gugur</v>
       </c>
     </row>
-    <row r="18" spans="2:17" s="7" customFormat="1">
+    <row r="18" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="86"/>
       <c r="C18" s="80"/>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="348"/>
+      <c r="H18" s="335"/>
       <c r="I18" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="350"/>
+      <c r="J18" s="337"/>
       <c r="K18" s="5"/>
       <c r="L18" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M18" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O18" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
     </row>
-    <row r="19" spans="2:17" s="7" customFormat="1" ht="17" customHeight="1">
+    <row r="19" spans="2:17" s="7" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="87"/>
       <c r="C19" s="88"/>
       <c r="D19" s="89"/>
       <c r="E19" s="89"/>
       <c r="F19" s="53"/>
       <c r="G19" s="52"/>
-      <c r="H19" s="347"/>
+      <c r="H19" s="334"/>
       <c r="I19" s="182"/>
-      <c r="J19" s="351"/>
+      <c r="J19" s="338"/>
       <c r="K19" s="53"/>
       <c r="L19" s="206"/>
       <c r="M19" s="64"/>
@@ -11924,7 +12112,7 @@
       <c r="P19" s="85"/>
       <c r="Q19" s="85"/>
     </row>
-    <row r="20" spans="2:17" s="7" customFormat="1" ht="6" customHeight="1">
+    <row r="20" spans="2:17" s="7" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="29"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -11942,7 +12130,7 @@
       <c r="P20" s="30"/>
       <c r="Q20" s="30"/>
     </row>
-    <row r="21" spans="2:17" s="7" customFormat="1">
+    <row r="21" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="14" t="s">
         <v>20</v>
       </c>
@@ -11952,7 +12140,7 @@
       <c r="M21" s="12"/>
       <c r="O21" s="107"/>
     </row>
-    <row r="22" spans="2:17" s="7" customFormat="1">
+    <row r="22" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
@@ -11963,7 +12151,7 @@
       <c r="M22" s="12"/>
       <c r="O22" s="107"/>
     </row>
-    <row r="23" spans="2:17" s="7" customFormat="1" ht="12.75" customHeight="1">
+    <row r="23" spans="2:17" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="58" t="s">
         <v>106</v>
       </c>
@@ -11973,22 +12161,22 @@
       <c r="I23" s="60"/>
       <c r="O23" s="107"/>
     </row>
-    <row r="24" spans="2:17" s="7" customFormat="1">
+    <row r="24" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C24" s="55"/>
       <c r="E24" s="55"/>
-      <c r="F24" s="341">
+      <c r="F24" s="326">
         <v>1800000000</v>
       </c>
-      <c r="G24" s="341"/>
-      <c r="H24" s="341"/>
+      <c r="G24" s="326"/>
+      <c r="H24" s="326"/>
       <c r="I24" s="60"/>
       <c r="J24" s="10"/>
       <c r="O24" s="107"/>
     </row>
-    <row r="25" spans="2:17" s="7" customFormat="1">
+    <row r="25" spans="2:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="58" t="s">
         <v>31</v>
       </c>
@@ -12000,7 +12188,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="107"/>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="56"/>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
@@ -12008,11 +12196,19 @@
       <c r="J26" s="10"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="H27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:H8"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B5:Q5"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="N7:O7"/>
     <mergeCell ref="P7:Q7"/>
@@ -12020,19 +12216,12 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H17:H19"/>
     <mergeCell ref="J17:J19"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:H8"/>
-    <mergeCell ref="K7:M7"/>
     <mergeCell ref="H9:H11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.17" right="0.17" top="0.69" bottom="0.36" header="0.17" footer="0.17"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/templates/4b BA dan Hasil Kualifikasi.xlsx
+++ b/templates/4b BA dan Hasil Kualifikasi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Penerimaan" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="148">
   <si>
     <t>No.</t>
   </si>
@@ -471,25 +471,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>.......................</t>
-  </si>
-  <si>
     <t>.....</t>
-  </si>
-  <si>
-    <t>PT A</t>
-  </si>
-  <si>
-    <t>PT B</t>
-  </si>
-  <si>
-    <t>PT C</t>
-  </si>
-  <si>
-    <t>PT D</t>
-  </si>
-  <si>
-    <t>(Dokumen Prakualifikasi No................. tanggal ...............)</t>
   </si>
   <si>
     <t>......</t>
@@ -714,6 +696,45 @@
         <family val="2"/>
       </rPr>
       <t>#namapengadaan#</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Dokumen Prakualifikasi No </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#nodokprakualifikasi#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tanggal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#tgldokprakualifikasi#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -1796,6 +1817,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1817,58 +1883,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1883,51 +1943,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1988,18 +2009,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2028,62 +2106,41 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2100,12 +2157,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2124,27 +2175,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2153,15 +2183,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7602,124 +7623,124 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B2" s="246" t="s">
+      <c r="B2" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="246"/>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="246"/>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="234"/>
+      <c r="O2" s="234"/>
+      <c r="P2" s="234"/>
+      <c r="Q2" s="234"/>
+      <c r="R2" s="234"/>
     </row>
     <row r="3" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B3" s="249" t="str">
+      <c r="B3" s="241" t="str">
         <f>BA!B12</f>
         <v>PEKERJAAN #namapengadaan#</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="249"/>
-      <c r="K3" s="249"/>
-      <c r="L3" s="249"/>
-      <c r="M3" s="249"/>
-      <c r="N3" s="249"/>
-      <c r="O3" s="249"/>
-      <c r="P3" s="249"/>
-      <c r="Q3" s="249"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
+      <c r="J3" s="241"/>
+      <c r="K3" s="241"/>
+      <c r="L3" s="241"/>
+      <c r="M3" s="241"/>
+      <c r="N3" s="241"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
       <c r="R3" s="155"/>
     </row>
     <row r="4" spans="2:18" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="249"/>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
+      <c r="B4" s="241"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="241"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
       <c r="R4" s="155"/>
     </row>
     <row r="5" spans="2:18" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="247" t="s">
-        <v>142</v>
-      </c>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="248"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="248"/>
-      <c r="O5" s="248"/>
-      <c r="P5" s="248"/>
-      <c r="Q5" s="248"/>
-      <c r="R5" s="248"/>
+      <c r="B5" s="235" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="236"/>
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+      <c r="F5" s="236"/>
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="236"/>
+      <c r="J5" s="236"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="236"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="236"/>
+      <c r="O5" s="236"/>
+      <c r="P5" s="236"/>
+      <c r="Q5" s="236"/>
+      <c r="R5" s="236"/>
     </row>
     <row r="7" spans="2:18" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="236" t="s">
+      <c r="B7" s="237" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="238"/>
-      <c r="D7" s="229" t="s">
+      <c r="D7" s="244" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="229"/>
-      <c r="F7" s="229"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="233" t="s">
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="234"/>
-      <c r="J7" s="233" t="s">
+      <c r="I7" s="249"/>
+      <c r="J7" s="248" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="235"/>
-      <c r="L7" s="234"/>
-      <c r="M7" s="236" t="s">
+      <c r="K7" s="250"/>
+      <c r="L7" s="249"/>
+      <c r="M7" s="237" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="237"/>
-      <c r="O7" s="237"/>
-      <c r="P7" s="237"/>
-      <c r="Q7" s="237"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="251"/>
+      <c r="P7" s="251"/>
+      <c r="Q7" s="251"/>
       <c r="R7" s="238"/>
     </row>
     <row r="8" spans="2:18" s="13" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="239"/>
-      <c r="C8" s="241"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="232"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="247"/>
       <c r="H8" s="75" t="s">
         <v>24</v>
       </c>
@@ -7736,11 +7757,11 @@
         <v>82</v>
       </c>
       <c r="M8" s="239"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="240"/>
-      <c r="P8" s="240"/>
-      <c r="Q8" s="240"/>
-      <c r="R8" s="241"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="252"/>
+      <c r="P8" s="252"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="240"/>
     </row>
     <row r="9" spans="2:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1">
@@ -7753,22 +7774,18 @@
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="244" t="s">
-        <v>136</v>
-      </c>
+      <c r="F9" s="229"/>
       <c r="G9" s="3"/>
       <c r="H9" s="54"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="141" t="s">
-        <v>80</v>
-      </c>
+      <c r="J9" s="141"/>
       <c r="K9" s="159"/>
       <c r="L9" s="159"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="251"/>
-      <c r="O9" s="251"/>
-      <c r="P9" s="251"/>
-      <c r="Q9" s="251"/>
+      <c r="N9" s="243"/>
+      <c r="O9" s="243"/>
+      <c r="P9" s="243"/>
+      <c r="Q9" s="243"/>
       <c r="R9" s="3"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -7776,7 +7793,7 @@
       <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="245"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="3"/>
       <c r="H10" s="54"/>
       <c r="I10" s="3"/>
@@ -7784,10 +7801,10 @@
       <c r="K10" s="54"/>
       <c r="L10" s="160"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="245"/>
-      <c r="O10" s="245"/>
-      <c r="P10" s="245"/>
-      <c r="Q10" s="245"/>
+      <c r="N10" s="230"/>
+      <c r="O10" s="230"/>
+      <c r="P10" s="230"/>
+      <c r="Q10" s="230"/>
       <c r="R10" s="3"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -7799,7 +7816,7 @@
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="250"/>
+      <c r="F11" s="242"/>
       <c r="G11" s="3"/>
       <c r="H11" s="54"/>
       <c r="I11" s="3"/>
@@ -7807,10 +7824,10 @@
       <c r="K11" s="54"/>
       <c r="L11" s="3"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="245"/>
-      <c r="O11" s="245"/>
-      <c r="P11" s="245"/>
-      <c r="Q11" s="245"/>
+      <c r="N11" s="230"/>
+      <c r="O11" s="230"/>
+      <c r="P11" s="230"/>
+      <c r="Q11" s="230"/>
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -7818,7 +7835,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="250"/>
+      <c r="F12" s="242"/>
       <c r="G12" s="3"/>
       <c r="H12" s="54"/>
       <c r="I12" s="3"/>
@@ -7826,10 +7843,10 @@
       <c r="K12" s="54"/>
       <c r="L12" s="3"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="245"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="245"/>
+      <c r="N12" s="230"/>
+      <c r="O12" s="230"/>
+      <c r="P12" s="230"/>
+      <c r="Q12" s="230"/>
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -7837,7 +7854,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="250"/>
+      <c r="F13" s="242"/>
       <c r="G13" s="3"/>
       <c r="H13" s="54"/>
       <c r="I13" s="3"/>
@@ -7845,10 +7862,10 @@
       <c r="K13" s="54"/>
       <c r="L13" s="3"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="245"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="245"/>
+      <c r="N13" s="230"/>
+      <c r="O13" s="230"/>
+      <c r="P13" s="230"/>
+      <c r="Q13" s="230"/>
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7856,7 +7873,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="250"/>
+      <c r="F14" s="242"/>
       <c r="G14" s="3"/>
       <c r="H14" s="54"/>
       <c r="I14" s="3"/>
@@ -7864,10 +7881,10 @@
       <c r="K14" s="54"/>
       <c r="L14" s="3"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="245"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="245"/>
-      <c r="Q14" s="245"/>
+      <c r="N14" s="230"/>
+      <c r="O14" s="230"/>
+      <c r="P14" s="230"/>
+      <c r="Q14" s="230"/>
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7889,10 +7906,10 @@
       <c r="K15" s="54"/>
       <c r="L15" s="3"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="245"/>
-      <c r="O15" s="245"/>
-      <c r="P15" s="245"/>
-      <c r="Q15" s="245"/>
+      <c r="N15" s="230"/>
+      <c r="O15" s="230"/>
+      <c r="P15" s="230"/>
+      <c r="Q15" s="230"/>
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7914,10 +7931,10 @@
       <c r="K16" s="54"/>
       <c r="L16" s="3"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="245"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="245"/>
+      <c r="N16" s="230"/>
+      <c r="O16" s="230"/>
+      <c r="P16" s="230"/>
+      <c r="Q16" s="230"/>
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7939,10 +7956,10 @@
       <c r="K17" s="54"/>
       <c r="L17" s="3"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="245"/>
-      <c r="O17" s="245"/>
-      <c r="P17" s="245"/>
-      <c r="Q17" s="245"/>
+      <c r="N17" s="230"/>
+      <c r="O17" s="230"/>
+      <c r="P17" s="230"/>
+      <c r="Q17" s="230"/>
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7964,10 +7981,10 @@
       <c r="K18" s="54"/>
       <c r="L18" s="3"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="245"/>
-      <c r="O18" s="245"/>
-      <c r="P18" s="245"/>
-      <c r="Q18" s="245"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="230"/>
+      <c r="P18" s="230"/>
+      <c r="Q18" s="230"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
@@ -7989,10 +8006,10 @@
       <c r="K19" s="54"/>
       <c r="L19" s="3"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="245"/>
-      <c r="O19" s="245"/>
-      <c r="P19" s="245"/>
-      <c r="Q19" s="245"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="230"/>
+      <c r="P19" s="230"/>
+      <c r="Q19" s="230"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
@@ -8012,10 +8029,10 @@
       <c r="K20" s="54"/>
       <c r="L20" s="3"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="245"/>
-      <c r="O20" s="245"/>
-      <c r="P20" s="245"/>
-      <c r="Q20" s="245"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="230"/>
+      <c r="P20" s="230"/>
+      <c r="Q20" s="230"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8048,22 +8065,18 @@
       <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="244" t="s">
-        <v>138</v>
-      </c>
+      <c r="F22" s="229"/>
       <c r="G22" s="3"/>
       <c r="H22" s="54"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="141" t="s">
-        <v>80</v>
-      </c>
+      <c r="J22" s="141"/>
       <c r="K22" s="159"/>
       <c r="L22" s="159"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="252"/>
-      <c r="O22" s="252"/>
-      <c r="P22" s="252"/>
-      <c r="Q22" s="252"/>
+      <c r="N22" s="253"/>
+      <c r="O22" s="253"/>
+      <c r="P22" s="253"/>
+      <c r="Q22" s="253"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
@@ -8071,7 +8084,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="245"/>
+      <c r="F23" s="230"/>
       <c r="G23" s="3"/>
       <c r="H23" s="54"/>
       <c r="I23" s="3"/>
@@ -8079,10 +8092,10 @@
       <c r="K23" s="54"/>
       <c r="L23" s="166"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="245"/>
-      <c r="O23" s="245"/>
-      <c r="P23" s="245"/>
-      <c r="Q23" s="245"/>
+      <c r="N23" s="230"/>
+      <c r="O23" s="230"/>
+      <c r="P23" s="230"/>
+      <c r="Q23" s="230"/>
       <c r="R23" s="3"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
@@ -8094,7 +8107,7 @@
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="242"/>
+      <c r="F24" s="231"/>
       <c r="G24" s="3"/>
       <c r="H24" s="54"/>
       <c r="I24" s="3"/>
@@ -8102,10 +8115,10 @@
       <c r="K24" s="54"/>
       <c r="L24" s="3"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="245"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
+      <c r="N24" s="230"/>
+      <c r="O24" s="230"/>
+      <c r="P24" s="230"/>
+      <c r="Q24" s="230"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
@@ -8113,7 +8126,7 @@
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="243"/>
+      <c r="F25" s="232"/>
       <c r="G25" s="3"/>
       <c r="H25" s="54"/>
       <c r="I25" s="3"/>
@@ -8121,10 +8134,10 @@
       <c r="K25" s="54"/>
       <c r="L25" s="3"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="245"/>
-      <c r="O25" s="245"/>
-      <c r="P25" s="245"/>
-      <c r="Q25" s="245"/>
+      <c r="N25" s="230"/>
+      <c r="O25" s="230"/>
+      <c r="P25" s="230"/>
+      <c r="Q25" s="230"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
@@ -8132,7 +8145,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="243"/>
+      <c r="F26" s="232"/>
       <c r="G26" s="3"/>
       <c r="H26" s="54"/>
       <c r="I26" s="3"/>
@@ -8140,10 +8153,10 @@
       <c r="K26" s="54"/>
       <c r="L26" s="3"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="245"/>
-      <c r="O26" s="245"/>
-      <c r="P26" s="245"/>
-      <c r="Q26" s="245"/>
+      <c r="N26" s="230"/>
+      <c r="O26" s="230"/>
+      <c r="P26" s="230"/>
+      <c r="Q26" s="230"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -8151,7 +8164,7 @@
       <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="243"/>
+      <c r="F27" s="232"/>
       <c r="G27" s="3"/>
       <c r="H27" s="54"/>
       <c r="I27" s="3"/>
@@ -8159,10 +8172,10 @@
       <c r="K27" s="54"/>
       <c r="L27" s="3"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="245"/>
-      <c r="O27" s="245"/>
-      <c r="P27" s="245"/>
-      <c r="Q27" s="245"/>
+      <c r="N27" s="230"/>
+      <c r="O27" s="230"/>
+      <c r="P27" s="230"/>
+      <c r="Q27" s="230"/>
       <c r="R27" s="3"/>
     </row>
     <row r="28" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8184,10 +8197,10 @@
       <c r="K28" s="54"/>
       <c r="L28" s="3"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="245"/>
-      <c r="O28" s="245"/>
-      <c r="P28" s="245"/>
-      <c r="Q28" s="245"/>
+      <c r="N28" s="230"/>
+      <c r="O28" s="230"/>
+      <c r="P28" s="230"/>
+      <c r="Q28" s="230"/>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8209,10 +8222,10 @@
       <c r="K29" s="54"/>
       <c r="L29" s="3"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="245"/>
-      <c r="O29" s="245"/>
-      <c r="P29" s="245"/>
-      <c r="Q29" s="245"/>
+      <c r="N29" s="230"/>
+      <c r="O29" s="230"/>
+      <c r="P29" s="230"/>
+      <c r="Q29" s="230"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8234,10 +8247,10 @@
       <c r="K30" s="54"/>
       <c r="L30" s="3"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="245"/>
-      <c r="O30" s="245"/>
-      <c r="P30" s="245"/>
-      <c r="Q30" s="245"/>
+      <c r="N30" s="230"/>
+      <c r="O30" s="230"/>
+      <c r="P30" s="230"/>
+      <c r="Q30" s="230"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8259,10 +8272,10 @@
       <c r="K31" s="54"/>
       <c r="L31" s="3"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="245"/>
-      <c r="O31" s="245"/>
-      <c r="P31" s="245"/>
-      <c r="Q31" s="245"/>
+      <c r="N31" s="230"/>
+      <c r="O31" s="230"/>
+      <c r="P31" s="230"/>
+      <c r="Q31" s="230"/>
       <c r="R31" s="3"/>
     </row>
     <row r="32" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
@@ -8284,10 +8297,10 @@
       <c r="K32" s="54"/>
       <c r="L32" s="3"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="245"/>
-      <c r="O32" s="245"/>
-      <c r="P32" s="245"/>
-      <c r="Q32" s="245"/>
+      <c r="N32" s="230"/>
+      <c r="O32" s="230"/>
+      <c r="P32" s="230"/>
+      <c r="Q32" s="230"/>
       <c r="R32" s="3"/>
     </row>
     <row r="33" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
@@ -8307,10 +8320,10 @@
       <c r="K33" s="54"/>
       <c r="L33" s="3"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="245"/>
-      <c r="O33" s="245"/>
-      <c r="P33" s="245"/>
-      <c r="Q33" s="245"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="230"/>
+      <c r="P33" s="230"/>
+      <c r="Q33" s="230"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8343,15 +8356,11 @@
       <c r="E35" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F35" s="244" t="s">
-        <v>139</v>
-      </c>
+      <c r="F35" s="229"/>
       <c r="G35" s="3"/>
       <c r="H35" s="54"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="143" t="s">
-        <v>80</v>
-      </c>
+      <c r="J35" s="143"/>
       <c r="K35" s="159"/>
       <c r="L35" s="159"/>
       <c r="M35" s="1"/>
@@ -8366,7 +8375,7 @@
       <c r="C36" s="3"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="245"/>
+      <c r="F36" s="230"/>
       <c r="G36" s="3"/>
       <c r="H36" s="54"/>
       <c r="I36" s="3"/>
@@ -8385,7 +8394,7 @@
       <c r="C37" s="3"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="242"/>
+      <c r="F37" s="231"/>
       <c r="G37" s="3"/>
       <c r="H37" s="54"/>
       <c r="I37" s="3"/>
@@ -8408,7 +8417,7 @@
       <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="243"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="3"/>
       <c r="H38" s="54"/>
       <c r="I38" s="3"/>
@@ -8427,7 +8436,7 @@
       <c r="C39" s="3"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="243"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="3"/>
       <c r="H39" s="54"/>
       <c r="I39" s="3"/>
@@ -8446,7 +8455,7 @@
       <c r="C40" s="3"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="243"/>
+      <c r="F40" s="232"/>
       <c r="G40" s="3"/>
       <c r="H40" s="54"/>
       <c r="I40" s="3"/>
@@ -8563,15 +8572,11 @@
       <c r="E45" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="253" t="s">
-        <v>140</v>
-      </c>
+      <c r="F45" s="233"/>
       <c r="G45" s="188"/>
       <c r="H45" s="190"/>
       <c r="I45" s="188"/>
-      <c r="J45" s="191" t="s">
-        <v>80</v>
-      </c>
+      <c r="J45" s="191"/>
       <c r="K45" s="192"/>
       <c r="L45" s="192"/>
       <c r="M45" s="187"/>
@@ -8586,7 +8591,7 @@
       <c r="C46" s="3"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="245"/>
+      <c r="F46" s="230"/>
       <c r="G46" s="3"/>
       <c r="H46" s="54"/>
       <c r="I46" s="3"/>
@@ -8605,7 +8610,7 @@
       <c r="C47" s="3"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="242"/>
+      <c r="F47" s="231"/>
       <c r="G47" s="3"/>
       <c r="H47" s="54"/>
       <c r="I47" s="3"/>
@@ -8628,7 +8633,7 @@
       <c r="E48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="243"/>
+      <c r="F48" s="232"/>
       <c r="G48" s="3"/>
       <c r="H48" s="54"/>
       <c r="I48" s="3"/>
@@ -8647,7 +8652,7 @@
       <c r="C49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="243"/>
+      <c r="F49" s="232"/>
       <c r="G49" s="3"/>
       <c r="H49" s="54"/>
       <c r="I49" s="3"/>
@@ -8666,7 +8671,7 @@
       <c r="C50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="243"/>
+      <c r="F50" s="232"/>
       <c r="G50" s="3"/>
       <c r="H50" s="54"/>
       <c r="I50" s="3"/>
@@ -8783,9 +8788,7 @@
       <c r="E55" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="244" t="s">
-        <v>141</v>
-      </c>
+      <c r="F55" s="229"/>
       <c r="G55" s="3"/>
       <c r="H55" s="54"/>
       <c r="I55" s="3"/>
@@ -8793,10 +8796,10 @@
       <c r="K55" s="196"/>
       <c r="L55" s="159"/>
       <c r="M55" s="1"/>
-      <c r="N55" s="244"/>
-      <c r="O55" s="245"/>
-      <c r="P55" s="245"/>
-      <c r="Q55" s="245"/>
+      <c r="N55" s="229"/>
+      <c r="O55" s="230"/>
+      <c r="P55" s="230"/>
+      <c r="Q55" s="230"/>
       <c r="R55" s="3"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
@@ -8804,7 +8807,7 @@
       <c r="C56" s="3"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="245"/>
+      <c r="F56" s="230"/>
       <c r="G56" s="3"/>
       <c r="H56" s="54"/>
       <c r="I56" s="3"/>
@@ -8812,10 +8815,10 @@
       <c r="K56" s="54"/>
       <c r="L56" s="166"/>
       <c r="M56" s="1"/>
-      <c r="N56" s="245"/>
-      <c r="O56" s="245"/>
-      <c r="P56" s="245"/>
-      <c r="Q56" s="245"/>
+      <c r="N56" s="230"/>
+      <c r="O56" s="230"/>
+      <c r="P56" s="230"/>
+      <c r="Q56" s="230"/>
       <c r="R56" s="3"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
@@ -8823,7 +8826,7 @@
       <c r="C57" s="3"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="242"/>
+      <c r="F57" s="231"/>
       <c r="G57" s="3"/>
       <c r="H57" s="54"/>
       <c r="I57" s="3"/>
@@ -8831,10 +8834,10 @@
       <c r="K57" s="54"/>
       <c r="L57" s="3"/>
       <c r="M57" s="1"/>
-      <c r="N57" s="245"/>
-      <c r="O57" s="245"/>
-      <c r="P57" s="245"/>
-      <c r="Q57" s="245"/>
+      <c r="N57" s="230"/>
+      <c r="O57" s="230"/>
+      <c r="P57" s="230"/>
+      <c r="Q57" s="230"/>
       <c r="R57" s="3"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
@@ -8846,7 +8849,7 @@
       <c r="E58" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="243"/>
+      <c r="F58" s="232"/>
       <c r="G58" s="3"/>
       <c r="H58" s="54"/>
       <c r="I58" s="3"/>
@@ -8854,10 +8857,10 @@
       <c r="K58" s="54"/>
       <c r="L58" s="3"/>
       <c r="M58" s="1"/>
-      <c r="N58" s="245"/>
-      <c r="O58" s="245"/>
-      <c r="P58" s="245"/>
-      <c r="Q58" s="245"/>
+      <c r="N58" s="230"/>
+      <c r="O58" s="230"/>
+      <c r="P58" s="230"/>
+      <c r="Q58" s="230"/>
       <c r="R58" s="3"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
@@ -8865,7 +8868,7 @@
       <c r="C59" s="3"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="243"/>
+      <c r="F59" s="232"/>
       <c r="G59" s="3"/>
       <c r="H59" s="54"/>
       <c r="I59" s="3"/>
@@ -8873,10 +8876,10 @@
       <c r="K59" s="54"/>
       <c r="L59" s="3"/>
       <c r="M59" s="1"/>
-      <c r="N59" s="245"/>
-      <c r="O59" s="245"/>
-      <c r="P59" s="245"/>
-      <c r="Q59" s="245"/>
+      <c r="N59" s="230"/>
+      <c r="O59" s="230"/>
+      <c r="P59" s="230"/>
+      <c r="Q59" s="230"/>
       <c r="R59" s="3"/>
     </row>
     <row r="60" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8884,7 +8887,7 @@
       <c r="C60" s="3"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="243"/>
+      <c r="F60" s="232"/>
       <c r="G60" s="3"/>
       <c r="H60" s="54"/>
       <c r="I60" s="3"/>
@@ -8892,10 +8895,10 @@
       <c r="K60" s="54"/>
       <c r="L60" s="3"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="245"/>
-      <c r="O60" s="245"/>
-      <c r="P60" s="245"/>
-      <c r="Q60" s="245"/>
+      <c r="N60" s="230"/>
+      <c r="O60" s="230"/>
+      <c r="P60" s="230"/>
+      <c r="Q60" s="230"/>
       <c r="R60" s="3"/>
     </row>
     <row r="61" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8915,10 +8918,10 @@
       <c r="K61" s="54"/>
       <c r="L61" s="3"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="245"/>
-      <c r="O61" s="245"/>
-      <c r="P61" s="245"/>
-      <c r="Q61" s="245"/>
+      <c r="N61" s="230"/>
+      <c r="O61" s="230"/>
+      <c r="P61" s="230"/>
+      <c r="Q61" s="230"/>
       <c r="R61" s="3"/>
     </row>
     <row r="62" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8938,10 +8941,10 @@
       <c r="K62" s="54"/>
       <c r="L62" s="3"/>
       <c r="M62" s="1"/>
-      <c r="N62" s="245"/>
-      <c r="O62" s="245"/>
-      <c r="P62" s="245"/>
-      <c r="Q62" s="245"/>
+      <c r="N62" s="230"/>
+      <c r="O62" s="230"/>
+      <c r="P62" s="230"/>
+      <c r="Q62" s="230"/>
       <c r="R62" s="3"/>
     </row>
     <row r="63" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8961,10 +8964,10 @@
       <c r="K63" s="54"/>
       <c r="L63" s="3"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="245"/>
-      <c r="O63" s="245"/>
-      <c r="P63" s="245"/>
-      <c r="Q63" s="245"/>
+      <c r="N63" s="230"/>
+      <c r="O63" s="230"/>
+      <c r="P63" s="230"/>
+      <c r="Q63" s="230"/>
       <c r="R63" s="3"/>
     </row>
     <row r="64" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8984,10 +8987,10 @@
       <c r="K64" s="54"/>
       <c r="L64" s="3"/>
       <c r="M64" s="1"/>
-      <c r="N64" s="245"/>
-      <c r="O64" s="245"/>
-      <c r="P64" s="245"/>
-      <c r="Q64" s="245"/>
+      <c r="N64" s="230"/>
+      <c r="O64" s="230"/>
+      <c r="P64" s="230"/>
+      <c r="Q64" s="230"/>
       <c r="R64" s="3"/>
     </row>
     <row r="65" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
@@ -9003,10 +9006,10 @@
       <c r="K65" s="54"/>
       <c r="L65" s="3"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="245"/>
-      <c r="O65" s="245"/>
-      <c r="P65" s="245"/>
-      <c r="Q65" s="245"/>
+      <c r="N65" s="230"/>
+      <c r="O65" s="230"/>
+      <c r="P65" s="230"/>
+      <c r="Q65" s="230"/>
       <c r="R65" s="3"/>
     </row>
     <row r="66" spans="2:18" hidden="1" x14ac:dyDescent="0.2">
@@ -9022,10 +9025,10 @@
       <c r="K66" s="54"/>
       <c r="L66" s="3"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="245"/>
-      <c r="O66" s="245"/>
-      <c r="P66" s="245"/>
-      <c r="Q66" s="245"/>
+      <c r="N66" s="230"/>
+      <c r="O66" s="230"/>
+      <c r="P66" s="230"/>
+      <c r="Q66" s="230"/>
       <c r="R66" s="3"/>
     </row>
     <row r="67" spans="2:18" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9058,7 +9061,7 @@
       <c r="E68" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="244"/>
+      <c r="F68" s="229"/>
       <c r="G68" s="3"/>
       <c r="H68" s="54"/>
       <c r="I68" s="3"/>
@@ -9066,17 +9069,17 @@
       <c r="K68" s="196"/>
       <c r="L68" s="159"/>
       <c r="M68" s="1"/>
-      <c r="N68" s="244"/>
-      <c r="O68" s="245"/>
-      <c r="P68" s="245"/>
-      <c r="Q68" s="245"/>
+      <c r="N68" s="229"/>
+      <c r="O68" s="230"/>
+      <c r="P68" s="230"/>
+      <c r="Q68" s="230"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="1"/>
       <c r="C69" s="3"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="245"/>
+      <c r="F69" s="230"/>
       <c r="G69" s="3"/>
       <c r="H69" s="54"/>
       <c r="I69" s="3"/>
@@ -9084,17 +9087,17 @@
       <c r="K69" s="54"/>
       <c r="L69" s="166"/>
       <c r="M69" s="1"/>
-      <c r="N69" s="245"/>
-      <c r="O69" s="245"/>
-      <c r="P69" s="245"/>
-      <c r="Q69" s="245"/>
+      <c r="N69" s="230"/>
+      <c r="O69" s="230"/>
+      <c r="P69" s="230"/>
+      <c r="Q69" s="230"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="3"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="242"/>
+      <c r="F70" s="231"/>
       <c r="G70" s="3"/>
       <c r="H70" s="54"/>
       <c r="I70" s="3"/>
@@ -9102,10 +9105,10 @@
       <c r="K70" s="54"/>
       <c r="L70" s="3"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="245"/>
-      <c r="O70" s="245"/>
-      <c r="P70" s="245"/>
-      <c r="Q70" s="245"/>
+      <c r="N70" s="230"/>
+      <c r="O70" s="230"/>
+      <c r="P70" s="230"/>
+      <c r="Q70" s="230"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="1"/>
@@ -9116,7 +9119,7 @@
       <c r="E71" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F71" s="243"/>
+      <c r="F71" s="232"/>
       <c r="G71" s="3"/>
       <c r="H71" s="54"/>
       <c r="I71" s="3"/>
@@ -9124,17 +9127,17 @@
       <c r="K71" s="54"/>
       <c r="L71" s="3"/>
       <c r="M71" s="1"/>
-      <c r="N71" s="245"/>
-      <c r="O71" s="245"/>
-      <c r="P71" s="245"/>
-      <c r="Q71" s="245"/>
+      <c r="N71" s="230"/>
+      <c r="O71" s="230"/>
+      <c r="P71" s="230"/>
+      <c r="Q71" s="230"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="1"/>
       <c r="C72" s="3"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="243"/>
+      <c r="F72" s="232"/>
       <c r="G72" s="3"/>
       <c r="H72" s="54"/>
       <c r="I72" s="3"/>
@@ -9142,17 +9145,17 @@
       <c r="K72" s="54"/>
       <c r="L72" s="3"/>
       <c r="M72" s="1"/>
-      <c r="N72" s="245"/>
-      <c r="O72" s="245"/>
-      <c r="P72" s="245"/>
-      <c r="Q72" s="245"/>
+      <c r="N72" s="230"/>
+      <c r="O72" s="230"/>
+      <c r="P72" s="230"/>
+      <c r="Q72" s="230"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="1"/>
       <c r="C73" s="3"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="243"/>
+      <c r="F73" s="232"/>
       <c r="G73" s="3"/>
       <c r="H73" s="54"/>
       <c r="I73" s="3"/>
@@ -9160,10 +9163,10 @@
       <c r="K73" s="54"/>
       <c r="L73" s="3"/>
       <c r="M73" s="1"/>
-      <c r="N73" s="245"/>
-      <c r="O73" s="245"/>
-      <c r="P73" s="245"/>
-      <c r="Q73" s="245"/>
+      <c r="N73" s="230"/>
+      <c r="O73" s="230"/>
+      <c r="P73" s="230"/>
+      <c r="Q73" s="230"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="1"/>
@@ -9182,10 +9185,10 @@
       <c r="K74" s="54"/>
       <c r="L74" s="3"/>
       <c r="M74" s="1"/>
-      <c r="N74" s="245"/>
-      <c r="O74" s="245"/>
-      <c r="P74" s="245"/>
-      <c r="Q74" s="245"/>
+      <c r="N74" s="230"/>
+      <c r="O74" s="230"/>
+      <c r="P74" s="230"/>
+      <c r="Q74" s="230"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="1"/>
@@ -9204,10 +9207,10 @@
       <c r="K75" s="54"/>
       <c r="L75" s="3"/>
       <c r="M75" s="1"/>
-      <c r="N75" s="245"/>
-      <c r="O75" s="245"/>
-      <c r="P75" s="245"/>
-      <c r="Q75" s="245"/>
+      <c r="N75" s="230"/>
+      <c r="O75" s="230"/>
+      <c r="P75" s="230"/>
+      <c r="Q75" s="230"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="1"/>
@@ -9226,10 +9229,10 @@
       <c r="K76" s="54"/>
       <c r="L76" s="3"/>
       <c r="M76" s="1"/>
-      <c r="N76" s="245"/>
-      <c r="O76" s="245"/>
-      <c r="P76" s="245"/>
-      <c r="Q76" s="245"/>
+      <c r="N76" s="230"/>
+      <c r="O76" s="230"/>
+      <c r="P76" s="230"/>
+      <c r="Q76" s="230"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="1"/>
@@ -9248,10 +9251,10 @@
       <c r="K77" s="54"/>
       <c r="L77" s="3"/>
       <c r="M77" s="1"/>
-      <c r="N77" s="245"/>
-      <c r="O77" s="245"/>
-      <c r="P77" s="245"/>
-      <c r="Q77" s="245"/>
+      <c r="N77" s="230"/>
+      <c r="O77" s="230"/>
+      <c r="P77" s="230"/>
+      <c r="Q77" s="230"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="1"/>
@@ -9266,10 +9269,10 @@
       <c r="K78" s="54"/>
       <c r="L78" s="3"/>
       <c r="M78" s="1"/>
-      <c r="N78" s="245"/>
-      <c r="O78" s="245"/>
-      <c r="P78" s="245"/>
-      <c r="Q78" s="245"/>
+      <c r="N78" s="230"/>
+      <c r="O78" s="230"/>
+      <c r="P78" s="230"/>
+      <c r="Q78" s="230"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1"/>
@@ -9284,10 +9287,10 @@
       <c r="K79" s="54"/>
       <c r="L79" s="3"/>
       <c r="M79" s="1"/>
-      <c r="N79" s="245"/>
-      <c r="O79" s="245"/>
-      <c r="P79" s="245"/>
-      <c r="Q79" s="245"/>
+      <c r="N79" s="230"/>
+      <c r="O79" s="230"/>
+      <c r="P79" s="230"/>
+      <c r="Q79" s="230"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="72"/>
@@ -9381,11 +9384,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="N68:Q79"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="N55:Q66"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="N22:Q33"/>
     <mergeCell ref="B2:R2"/>
     <mergeCell ref="B5:R5"/>
     <mergeCell ref="B7:C8"/>
@@ -9397,21 +9400,22 @@
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="M7:R8"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="N68:Q79"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="F57:F60"/>
     <mergeCell ref="F55:F56"/>
     <mergeCell ref="F37:F40"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F47:F50"/>
-    <mergeCell ref="N55:Q66"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="N22:Q33"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.61" right="0.15748031496063" top="0.47" bottom="0.45" header="0.15748031496063" footer="0.15748031496063"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9427,8 +9431,8 @@
   </sheetPr>
   <dimension ref="B3:Z93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A22" zoomScale="142" zoomScaleNormal="142" zoomScalePageLayoutView="142" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9458,41 +9462,41 @@
       <c r="E4" s="18"/>
     </row>
     <row r="7" spans="2:16" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="254" t="s">
+      <c r="B7" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="254"/>
-      <c r="D7" s="254"/>
-      <c r="E7" s="254"/>
-      <c r="F7" s="254"/>
-      <c r="G7" s="254"/>
-      <c r="H7" s="254"/>
-      <c r="I7" s="254"/>
-      <c r="J7" s="254"/>
-      <c r="K7" s="254"/>
-      <c r="L7" s="254"/>
-      <c r="M7" s="254"/>
-      <c r="N7" s="254"/>
-      <c r="O7" s="254"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="267"/>
+      <c r="E7" s="267"/>
+      <c r="F7" s="267"/>
+      <c r="G7" s="267"/>
+      <c r="H7" s="267"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="267"/>
+      <c r="K7" s="267"/>
+      <c r="L7" s="267"/>
+      <c r="M7" s="267"/>
+      <c r="N7" s="267"/>
+      <c r="O7" s="267"/>
       <c r="P7" s="20"/>
     </row>
     <row r="8" spans="2:16" s="21" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B8" s="255" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="255"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="255"/>
-      <c r="F8" s="255"/>
-      <c r="G8" s="255"/>
-      <c r="H8" s="255"/>
-      <c r="I8" s="255"/>
-      <c r="J8" s="255"/>
-      <c r="K8" s="255"/>
-      <c r="L8" s="255"/>
-      <c r="M8" s="255"/>
-      <c r="N8" s="255"/>
-      <c r="O8" s="255"/>
+      <c r="B8" s="268" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="268"/>
+      <c r="D8" s="268"/>
+      <c r="E8" s="268"/>
+      <c r="F8" s="268"/>
+      <c r="G8" s="268"/>
+      <c r="H8" s="268"/>
+      <c r="I8" s="268"/>
+      <c r="J8" s="268"/>
+      <c r="K8" s="268"/>
+      <c r="L8" s="268"/>
+      <c r="M8" s="268"/>
+      <c r="N8" s="268"/>
+      <c r="O8" s="268"/>
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="2:16" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -9501,95 +9505,95 @@
       <c r="D9" s="23"/>
     </row>
     <row r="10" spans="2:16" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="246"/>
-      <c r="N10" s="246"/>
-      <c r="O10" s="246"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="234"/>
+      <c r="F10" s="234"/>
+      <c r="G10" s="234"/>
+      <c r="H10" s="234"/>
+      <c r="I10" s="234"/>
+      <c r="J10" s="234"/>
+      <c r="K10" s="234"/>
+      <c r="L10" s="234"/>
+      <c r="M10" s="234"/>
+      <c r="N10" s="234"/>
+      <c r="O10" s="234"/>
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" s="21" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="263" t="s">
+      <c r="B11" s="272" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="263"/>
-      <c r="D11" s="263"/>
-      <c r="E11" s="263"/>
-      <c r="F11" s="263"/>
-      <c r="G11" s="263"/>
-      <c r="H11" s="263"/>
-      <c r="I11" s="263"/>
-      <c r="J11" s="263"/>
-      <c r="K11" s="263"/>
-      <c r="L11" s="263"/>
-      <c r="M11" s="263"/>
-      <c r="N11" s="263"/>
-      <c r="O11" s="263"/>
+      <c r="C11" s="272"/>
+      <c r="D11" s="272"/>
+      <c r="E11" s="272"/>
+      <c r="F11" s="272"/>
+      <c r="G11" s="272"/>
+      <c r="H11" s="272"/>
+      <c r="I11" s="272"/>
+      <c r="J11" s="272"/>
+      <c r="K11" s="272"/>
+      <c r="L11" s="272"/>
+      <c r="M11" s="272"/>
+      <c r="N11" s="272"/>
+      <c r="O11" s="272"/>
       <c r="P11" s="24"/>
     </row>
     <row r="12" spans="2:16" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="249" t="s">
-        <v>152</v>
-      </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="249"/>
-      <c r="I12" s="249"/>
-      <c r="J12" s="249"/>
-      <c r="K12" s="249"/>
-      <c r="L12" s="249"/>
-      <c r="M12" s="249"/>
-      <c r="N12" s="249"/>
-      <c r="O12" s="249"/>
+      <c r="B12" s="241" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="241"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="241"/>
+      <c r="G12" s="241"/>
+      <c r="H12" s="241"/>
+      <c r="I12" s="241"/>
+      <c r="J12" s="241"/>
+      <c r="K12" s="241"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="241"/>
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="249"/>
-      <c r="C13" s="249"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="249"/>
-      <c r="F13" s="249"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="249"/>
-      <c r="I13" s="249"/>
-      <c r="J13" s="249"/>
-      <c r="K13" s="249"/>
-      <c r="L13" s="249"/>
-      <c r="M13" s="249"/>
-      <c r="N13" s="249"/>
-      <c r="O13" s="249"/>
+      <c r="B13" s="241"/>
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="241"/>
+      <c r="N13" s="241"/>
+      <c r="O13" s="241"/>
     </row>
     <row r="15" spans="2:16" s="21" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="261" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="261"/>
-      <c r="D15" s="261"/>
-      <c r="E15" s="261"/>
-      <c r="F15" s="261"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="261"/>
-      <c r="I15" s="261"/>
-      <c r="J15" s="261"/>
-      <c r="K15" s="261"/>
-      <c r="L15" s="261"/>
-      <c r="M15" s="261"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="261"/>
+      <c r="B15" s="260" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="260"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
       <c r="P15" s="26"/>
     </row>
     <row r="16" spans="2:16" s="21" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9628,7 +9632,7 @@
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
       <c r="K17" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L17" s="164" t="s">
         <v>103</v>
@@ -9655,7 +9659,7 @@
       <c r="I18" s="76"/>
       <c r="J18" s="76"/>
       <c r="K18" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L18" s="164" t="s">
         <v>103</v>
@@ -9682,7 +9686,7 @@
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
       <c r="K19" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L19" s="113"/>
       <c r="M19" s="165" t="s">
@@ -9733,20 +9737,20 @@
     <row r="22" spans="2:16" s="21" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="25"/>
-      <c r="D22" s="261" t="s">
+      <c r="D22" s="260" t="s">
         <v>130</v>
       </c>
-      <c r="E22" s="262"/>
-      <c r="F22" s="262"/>
-      <c r="G22" s="262"/>
-      <c r="H22" s="262"/>
-      <c r="I22" s="262"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
-      <c r="M22" s="262"/>
-      <c r="N22" s="262"/>
-      <c r="O22" s="262"/>
+      <c r="E22" s="261"/>
+      <c r="F22" s="261"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="261"/>
+      <c r="I22" s="261"/>
+      <c r="J22" s="261"/>
+      <c r="K22" s="261"/>
+      <c r="L22" s="261"/>
+      <c r="M22" s="261"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="261"/>
       <c r="P22" s="26"/>
     </row>
     <row r="23" spans="2:16" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9833,20 +9837,20 @@
       <c r="P26" s="26"/>
     </row>
     <row r="27" spans="2:16" s="39" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" s="256" t="s">
+      <c r="D27" s="269" t="s">
         <v>0</v>
       </c>
-      <c r="E27" s="257"/>
-      <c r="F27" s="258" t="s">
+      <c r="E27" s="270"/>
+      <c r="F27" s="263" t="s">
         <v>66</v>
       </c>
-      <c r="G27" s="259"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="258" t="s">
+      <c r="G27" s="271"/>
+      <c r="H27" s="271"/>
+      <c r="I27" s="264"/>
+      <c r="J27" s="263" t="s">
         <v>93</v>
       </c>
-      <c r="K27" s="260"/>
+      <c r="K27" s="264"/>
       <c r="L27" s="40"/>
     </row>
     <row r="28" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -9855,17 +9859,17 @@
       </c>
       <c r="E28" s="43"/>
       <c r="F28" s="44"/>
-      <c r="G28" s="45" t="str">
+      <c r="G28" s="45">
         <f>Penerimaan!F9</f>
-        <v>.......................</v>
+        <v>0</v>
       </c>
       <c r="H28" s="45"/>
       <c r="I28" s="43"/>
-      <c r="J28" s="264" t="str">
+      <c r="J28" s="258" t="str">
         <f>Adm!W12</f>
         <v>Lulus</v>
       </c>
-      <c r="K28" s="265"/>
+      <c r="K28" s="259"/>
     </row>
     <row r="29" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="46" t="s">
@@ -9873,17 +9877,17 @@
       </c>
       <c r="E29" s="47"/>
       <c r="F29" s="48"/>
-      <c r="G29" s="45" t="str">
+      <c r="G29" s="45">
         <f>Penerimaan!F22</f>
-        <v>PT A</v>
+        <v>0</v>
       </c>
       <c r="H29" s="45"/>
       <c r="I29" s="45"/>
-      <c r="J29" s="264" t="str">
+      <c r="J29" s="258" t="str">
         <f>Adm!W13</f>
         <v>Lulus</v>
       </c>
-      <c r="K29" s="265"/>
+      <c r="K29" s="259"/>
     </row>
     <row r="30" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="46" t="s">
@@ -9891,17 +9895,17 @@
       </c>
       <c r="E30" s="47"/>
       <c r="F30" s="48"/>
-      <c r="G30" s="45" t="str">
+      <c r="G30" s="45">
         <f>Penerimaan!F35</f>
-        <v>PT B</v>
+        <v>0</v>
       </c>
       <c r="H30" s="128"/>
       <c r="I30" s="128"/>
-      <c r="J30" s="264" t="str">
+      <c r="J30" s="258" t="str">
         <f>Adm!W14</f>
         <v>Lulus</v>
       </c>
-      <c r="K30" s="265"/>
+      <c r="K30" s="259"/>
     </row>
     <row r="31" spans="2:16" s="41" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="46" t="s">
@@ -9909,17 +9913,17 @@
       </c>
       <c r="E31" s="47"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="45" t="str">
+      <c r="G31" s="45">
         <f>Penerimaan!F45</f>
-        <v>PT C</v>
+        <v>0</v>
       </c>
       <c r="H31" s="128"/>
       <c r="I31" s="128"/>
-      <c r="J31" s="264" t="str">
+      <c r="J31" s="258" t="str">
         <f>Adm!W15</f>
         <v>Lulus</v>
       </c>
-      <c r="K31" s="265"/>
+      <c r="K31" s="259"/>
     </row>
     <row r="32" spans="2:16" s="41" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="46" t="s">
@@ -9927,17 +9931,17 @@
       </c>
       <c r="E32" s="47"/>
       <c r="F32" s="48"/>
-      <c r="G32" s="45" t="str">
+      <c r="G32" s="45">
         <f>Penerimaan!F55</f>
-        <v>PT D</v>
+        <v>0</v>
       </c>
       <c r="H32" s="128"/>
       <c r="I32" s="47"/>
-      <c r="J32" s="264" t="str">
+      <c r="J32" s="258" t="str">
         <f>Resume!G12</f>
         <v>Gugur</v>
       </c>
-      <c r="K32" s="265"/>
+      <c r="K32" s="259"/>
     </row>
     <row r="33" spans="2:26" s="41" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" s="46" t="s">
@@ -9951,16 +9955,16 @@
       </c>
       <c r="H33" s="128"/>
       <c r="I33" s="47"/>
-      <c r="J33" s="264" t="e">
+      <c r="J33" s="258" t="e">
         <f>Resume!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K33" s="265"/>
-      <c r="L33" s="264" t="e">
+      <c r="K33" s="259"/>
+      <c r="L33" s="258" t="e">
         <f>Resume!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="M33" s="265"/>
+      <c r="M33" s="259"/>
       <c r="N33" s="49" t="e">
         <f>Resume!#REF!</f>
         <v>#REF!</v>
@@ -9997,11 +10001,11 @@
     <row r="36" spans="2:26" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:26" s="21" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="2:26" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M38" s="272" t="s">
+      <c r="M38" s="262" t="s">
         <v>14</v>
       </c>
-      <c r="N38" s="272"/>
-      <c r="O38" s="272"/>
+      <c r="N38" s="262"/>
+      <c r="O38" s="262"/>
       <c r="P38" s="152"/>
       <c r="Q38" s="152"/>
       <c r="R38" s="152"/>
@@ -10015,13 +10019,13 @@
       <c r="Z38" s="152"/>
     </row>
     <row r="39" spans="2:26" s="21" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="L39" s="271" t="str">
+      <c r="L39" s="257" t="str">
         <f>B8</f>
         <v>No. #nobapq#</v>
       </c>
-      <c r="M39" s="271"/>
-      <c r="N39" s="271"/>
-      <c r="O39" s="271"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="257"/>
+      <c r="O39" s="257"/>
       <c r="P39" s="153"/>
       <c r="Q39" s="153"/>
       <c r="R39" s="153"/>
@@ -10067,22 +10071,22 @@
       <c r="Z41" s="153"/>
     </row>
     <row r="42" spans="2:26" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="261" t="s">
+      <c r="B42" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="262"/>
-      <c r="D42" s="262"/>
-      <c r="E42" s="262"/>
-      <c r="F42" s="262"/>
-      <c r="G42" s="262"/>
-      <c r="H42" s="262"/>
-      <c r="I42" s="262"/>
-      <c r="J42" s="262"/>
-      <c r="K42" s="262"/>
-      <c r="L42" s="262"/>
-      <c r="M42" s="262"/>
-      <c r="N42" s="262"/>
-      <c r="O42" s="262"/>
+      <c r="C42" s="261"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="261"/>
+      <c r="F42" s="261"/>
+      <c r="G42" s="261"/>
+      <c r="H42" s="261"/>
+      <c r="I42" s="261"/>
+      <c r="J42" s="261"/>
+      <c r="K42" s="261"/>
+      <c r="L42" s="261"/>
+      <c r="M42" s="261"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="261"/>
     </row>
     <row r="43" spans="2:26" s="21" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="32"/>
@@ -10096,16 +10100,16 @@
       <c r="E44" s="93"/>
       <c r="F44" s="93"/>
       <c r="G44" s="93"/>
-      <c r="H44" s="267" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="267"/>
-      <c r="J44" s="267"/>
-      <c r="K44" s="267"/>
-      <c r="L44" s="267"/>
-      <c r="M44" s="267"/>
-      <c r="N44" s="267"/>
-      <c r="O44" s="267"/>
+      <c r="H44" s="266" t="s">
+        <v>138</v>
+      </c>
+      <c r="I44" s="266"/>
+      <c r="J44" s="266"/>
+      <c r="K44" s="266"/>
+      <c r="L44" s="266"/>
+      <c r="M44" s="266"/>
+      <c r="N44" s="266"/>
+      <c r="O44" s="266"/>
     </row>
     <row r="45" spans="2:26" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="94"/>
@@ -10114,29 +10118,29 @@
       <c r="E45" s="93"/>
       <c r="F45" s="93"/>
       <c r="G45" s="93"/>
-      <c r="H45" s="267"/>
-      <c r="I45" s="267"/>
-      <c r="J45" s="267"/>
-      <c r="K45" s="267"/>
-      <c r="L45" s="267"/>
-      <c r="M45" s="267"/>
-      <c r="N45" s="267"/>
-      <c r="O45" s="267"/>
+      <c r="H45" s="266"/>
+      <c r="I45" s="266"/>
+      <c r="J45" s="266"/>
+      <c r="K45" s="266"/>
+      <c r="L45" s="266"/>
+      <c r="M45" s="266"/>
+      <c r="N45" s="266"/>
+      <c r="O45" s="266"/>
     </row>
     <row r="46" spans="2:26" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="266" t="s">
+      <c r="B46" s="265" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="266"/>
-      <c r="D46" s="266"/>
-      <c r="E46" s="266"/>
-      <c r="F46" s="266"/>
-      <c r="G46" s="266"/>
+      <c r="C46" s="265"/>
+      <c r="D46" s="265"/>
+      <c r="E46" s="265"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="265"/>
       <c r="H46" s="129" t="s">
         <v>5</v>
       </c>
       <c r="I46" s="131" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="K46" s="34"/>
       <c r="L46" s="34"/>
@@ -10173,7 +10177,7 @@
         <v>6</v>
       </c>
       <c r="I50" s="132" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10186,24 +10190,24 @@
       </c>
     </row>
     <row r="52" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="268" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="268"/>
-      <c r="D52" s="268"/>
-      <c r="E52" s="268"/>
-      <c r="F52" s="268"/>
-      <c r="G52" s="268"/>
+      <c r="B52" s="254" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="254"/>
+      <c r="D52" s="254"/>
+      <c r="E52" s="254"/>
+      <c r="F52" s="254"/>
+      <c r="G52" s="254"/>
     </row>
     <row r="53" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B53" s="269" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="270"/>
-      <c r="D53" s="270"/>
-      <c r="E53" s="270"/>
-      <c r="F53" s="270"/>
-      <c r="G53" s="270"/>
+      <c r="B53" s="255" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="256"/>
+      <c r="D53" s="256"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="256"/>
     </row>
     <row r="54" spans="2:13" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B54" s="36"/>
@@ -10211,7 +10215,7 @@
         <v>7</v>
       </c>
       <c r="I54" s="132" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="2:13" s="37" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
@@ -10308,6 +10312,21 @@
     <row r="93" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="D22:O22"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B12:O13"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H44:O45"/>
     <mergeCell ref="B52:G52"/>
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="L39:O39"/>
@@ -10317,21 +10336,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="M38:O38"/>
     <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="H44:O45"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="D22:O22"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B12:O13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.38" right="0.67" top="0.37" bottom="0.81" header="0.17" footer="0.32"/>
@@ -10394,17 +10398,17 @@
       <c r="Q2" s="101"/>
     </row>
     <row r="3" spans="2:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="249" t="str">
+      <c r="B3" s="241" t="str">
         <f>BA!B12</f>
         <v>PEKERJAAN #namapengadaan#</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
+      <c r="C3" s="241"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="241"/>
+      <c r="H3" s="241"/>
+      <c r="I3" s="241"/>
       <c r="J3" s="209"/>
       <c r="K3" s="209"/>
       <c r="L3" s="209"/>
@@ -10481,21 +10485,21 @@
       </c>
       <c r="C8" s="215"/>
       <c r="D8" s="216"/>
-      <c r="E8" s="217" t="str">
+      <c r="E8" s="217">
         <f>Penerimaan!F9</f>
-        <v>.......................</v>
-      </c>
-      <c r="F8" s="218" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" s="218">
         <f>Penerimaan!J9</f>
-        <v>Ya</v>
+        <v>0</v>
       </c>
       <c r="G8" s="136" t="str">
         <f>IF(F8="Ya",Adm!W12,"-")</f>
-        <v>Lulus</v>
+        <v>-</v>
       </c>
       <c r="H8" s="136" t="str">
         <f>IF(F8="Ya",Comp!Q9,"-")</f>
-        <v>Gugur</v>
+        <v>-</v>
       </c>
       <c r="I8" s="219" t="s">
         <v>94</v>
@@ -10512,21 +10516,21 @@
       </c>
       <c r="C9" s="215"/>
       <c r="D9" s="216"/>
-      <c r="E9" s="217" t="str">
+      <c r="E9" s="217">
         <f>Penerimaan!F22</f>
-        <v>PT A</v>
-      </c>
-      <c r="F9" s="218" t="str">
+        <v>0</v>
+      </c>
+      <c r="F9" s="218">
         <f>Penerimaan!J22</f>
-        <v>Ya</v>
+        <v>0</v>
       </c>
       <c r="G9" s="136" t="str">
         <f>IF(F9="Ya",Adm!W13,"-")</f>
-        <v>Lulus</v>
+        <v>-</v>
       </c>
       <c r="H9" s="136" t="str">
         <f>IF(F9="Ya",Comp!Q12,"-")</f>
-        <v>Gugur</v>
+        <v>-</v>
       </c>
       <c r="I9" s="219" t="s">
         <v>94</v>
@@ -10543,21 +10547,21 @@
       </c>
       <c r="C10" s="221"/>
       <c r="D10" s="222"/>
-      <c r="E10" s="223" t="str">
+      <c r="E10" s="223">
         <f>Penerimaan!F35</f>
-        <v>PT B</v>
-      </c>
-      <c r="F10" s="224" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" s="224">
         <f>Penerimaan!J35</f>
-        <v>Ya</v>
+        <v>0</v>
       </c>
       <c r="G10" s="225" t="str">
         <f>IF(F10="Ya",Adm!W14,"-")</f>
-        <v>Lulus</v>
+        <v>-</v>
       </c>
       <c r="H10" s="225" t="str">
         <f>IF(F10="Ya",Comp!Q14,"-")</f>
-        <v>Gugur</v>
+        <v>-</v>
       </c>
       <c r="I10" s="226" t="s">
         <v>94</v>
@@ -10571,21 +10575,21 @@
       </c>
       <c r="C11" s="221"/>
       <c r="D11" s="222"/>
-      <c r="E11" s="223" t="str">
+      <c r="E11" s="223">
         <f>Penerimaan!F45</f>
-        <v>PT C</v>
-      </c>
-      <c r="F11" s="224" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" s="224">
         <f>Penerimaan!J45</f>
-        <v>Ya</v>
+        <v>0</v>
       </c>
       <c r="G11" s="225" t="str">
         <f>IF(F11="Ya",Adm!W15,"-")</f>
-        <v>Lulus</v>
+        <v>-</v>
       </c>
       <c r="H11" s="225" t="str">
         <f>IF(F11="Ya",Comp!Q17,"-")</f>
-        <v>Gugur</v>
+        <v>-</v>
       </c>
       <c r="I11" s="226" t="s">
         <v>94</v>
@@ -10599,9 +10603,9 @@
       </c>
       <c r="C12" s="222"/>
       <c r="D12" s="222"/>
-      <c r="E12" s="223" t="str">
+      <c r="E12" s="223">
         <f>Penerimaan!F55</f>
-        <v>PT D</v>
+        <v>0</v>
       </c>
       <c r="F12" s="228" t="s">
         <v>80</v>
@@ -10960,7 +10964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:W3"/>
     </sheetView>
   </sheetViews>
@@ -10982,150 +10986,150 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="307" t="str">
+      <c r="B3" s="299" t="str">
         <f>Resume!B3</f>
         <v>PEKERJAAN #namapengadaan#</v>
       </c>
-      <c r="C3" s="307"/>
-      <c r="D3" s="307"/>
-      <c r="E3" s="307"/>
-      <c r="F3" s="307"/>
-      <c r="G3" s="307"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
-      <c r="K3" s="307"/>
-      <c r="L3" s="307"/>
-      <c r="M3" s="307"/>
-      <c r="N3" s="307"/>
-      <c r="O3" s="307"/>
-      <c r="P3" s="307"/>
-      <c r="Q3" s="307"/>
-      <c r="R3" s="307"/>
-      <c r="S3" s="307"/>
-      <c r="T3" s="307"/>
-      <c r="U3" s="307"/>
-      <c r="V3" s="307"/>
-      <c r="W3" s="307"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="299"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
+      <c r="S3" s="299"/>
+      <c r="T3" s="299"/>
+      <c r="U3" s="299"/>
+      <c r="V3" s="299"/>
+      <c r="W3" s="299"/>
     </row>
     <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="249" t="s">
+      <c r="B4" s="241" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="249"/>
-      <c r="D4" s="249"/>
-      <c r="E4" s="249"/>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="249"/>
-      <c r="O4" s="249"/>
-      <c r="P4" s="249"/>
-      <c r="Q4" s="249"/>
-      <c r="R4" s="249"/>
-      <c r="S4" s="249"/>
-      <c r="T4" s="249"/>
-      <c r="U4" s="249"/>
-      <c r="V4" s="249"/>
-      <c r="W4" s="249"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
+      <c r="H4" s="241"/>
+      <c r="I4" s="241"/>
+      <c r="J4" s="241"/>
+      <c r="K4" s="241"/>
+      <c r="L4" s="241"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="241"/>
+      <c r="P4" s="241"/>
+      <c r="Q4" s="241"/>
+      <c r="R4" s="241"/>
+      <c r="S4" s="241"/>
+      <c r="T4" s="241"/>
+      <c r="U4" s="241"/>
+      <c r="V4" s="241"/>
+      <c r="W4" s="241"/>
     </row>
     <row r="7" spans="2:24" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="311" t="s">
+      <c r="B7" s="305" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="312"/>
-      <c r="D7" s="297" t="s">
+      <c r="C7" s="306"/>
+      <c r="D7" s="316" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
-      <c r="G7" s="298"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="308" t="s">
+      <c r="E7" s="317"/>
+      <c r="F7" s="317"/>
+      <c r="G7" s="317"/>
+      <c r="H7" s="318"/>
+      <c r="I7" s="302" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="309"/>
-      <c r="M7" s="309"/>
-      <c r="N7" s="309"/>
-      <c r="O7" s="309"/>
-      <c r="P7" s="309"/>
-      <c r="Q7" s="309"/>
-      <c r="R7" s="309"/>
-      <c r="S7" s="309"/>
-      <c r="T7" s="309"/>
-      <c r="U7" s="309"/>
-      <c r="V7" s="310"/>
-      <c r="W7" s="317" t="s">
+      <c r="J7" s="303"/>
+      <c r="K7" s="303"/>
+      <c r="L7" s="303"/>
+      <c r="M7" s="303"/>
+      <c r="N7" s="303"/>
+      <c r="O7" s="303"/>
+      <c r="P7" s="303"/>
+      <c r="Q7" s="303"/>
+      <c r="R7" s="303"/>
+      <c r="S7" s="303"/>
+      <c r="T7" s="303"/>
+      <c r="U7" s="303"/>
+      <c r="V7" s="304"/>
+      <c r="W7" s="311" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:24" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="313"/>
-      <c r="C8" s="314"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="302"/>
-      <c r="I8" s="293" t="s">
+      <c r="B8" s="307"/>
+      <c r="C8" s="308"/>
+      <c r="D8" s="319"/>
+      <c r="E8" s="320"/>
+      <c r="F8" s="320"/>
+      <c r="G8" s="320"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="295" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="293" t="s">
+      <c r="J8" s="295" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="293" t="s">
+      <c r="K8" s="295" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="295" t="s">
+      <c r="L8" s="300" t="s">
         <v>1</v>
       </c>
       <c r="M8" s="123"/>
-      <c r="N8" s="293" t="s">
+      <c r="N8" s="295" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="319" t="s">
+      <c r="O8" s="313" t="s">
         <v>2</v>
       </c>
-      <c r="P8" s="320"/>
-      <c r="Q8" s="319" t="s">
+      <c r="P8" s="314"/>
+      <c r="Q8" s="313" t="s">
         <v>3</v>
       </c>
-      <c r="R8" s="321"/>
-      <c r="S8" s="320"/>
-      <c r="T8" s="295" t="s">
+      <c r="R8" s="315"/>
+      <c r="S8" s="314"/>
+      <c r="T8" s="300" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="295" t="s">
+      <c r="U8" s="300" t="s">
         <v>63</v>
       </c>
-      <c r="V8" s="293" t="s">
+      <c r="V8" s="295" t="s">
         <v>133</v>
       </c>
-      <c r="W8" s="318"/>
+      <c r="W8" s="312"/>
     </row>
     <row r="9" spans="2:24" s="7" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="313"/>
-      <c r="C9" s="314"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="302"/>
-      <c r="I9" s="306"/>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294"/>
-      <c r="L9" s="296"/>
+      <c r="B9" s="307"/>
+      <c r="C9" s="308"/>
+      <c r="D9" s="319"/>
+      <c r="E9" s="320"/>
+      <c r="F9" s="320"/>
+      <c r="G9" s="320"/>
+      <c r="H9" s="321"/>
+      <c r="I9" s="325"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="301"/>
       <c r="M9" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="294"/>
+      <c r="N9" s="296"/>
       <c r="O9" s="134" t="s">
         <v>60</v>
       </c>
@@ -11141,19 +11145,19 @@
       <c r="S9" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="T9" s="296"/>
-      <c r="U9" s="296"/>
-      <c r="V9" s="294"/>
-      <c r="W9" s="318"/>
+      <c r="T9" s="301"/>
+      <c r="U9" s="301"/>
+      <c r="V9" s="296"/>
+      <c r="W9" s="312"/>
     </row>
     <row r="10" spans="2:24" s="7" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="313"/>
-      <c r="C10" s="314"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="302"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="308"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="320"/>
+      <c r="F10" s="320"/>
+      <c r="G10" s="320"/>
+      <c r="H10" s="321"/>
       <c r="I10" s="135"/>
       <c r="J10" s="127"/>
       <c r="K10" s="127"/>
@@ -11171,13 +11175,13 @@
       <c r="W10" s="126"/>
     </row>
     <row r="11" spans="2:24" s="7" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="315"/>
-      <c r="C11" s="316"/>
-      <c r="D11" s="303"/>
-      <c r="E11" s="304"/>
-      <c r="F11" s="304"/>
-      <c r="G11" s="304"/>
-      <c r="H11" s="305"/>
+      <c r="B11" s="309"/>
+      <c r="C11" s="310"/>
+      <c r="D11" s="322"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
+      <c r="G11" s="323"/>
+      <c r="H11" s="324"/>
       <c r="I11" s="118">
         <v>1</v>
       </c>
@@ -11230,13 +11234,13 @@
       </c>
       <c r="C12" s="115"/>
       <c r="D12" s="114"/>
-      <c r="E12" s="324" t="str">
+      <c r="E12" s="297">
         <f>Resume!E8</f>
-        <v>.......................</v>
-      </c>
-      <c r="F12" s="324"/>
-      <c r="G12" s="324"/>
-      <c r="H12" s="325"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="297"/>
+      <c r="G12" s="297"/>
+      <c r="H12" s="298"/>
       <c r="I12" s="116" t="s">
         <v>57</v>
       </c>
@@ -11294,13 +11298,13 @@
       </c>
       <c r="C13" s="115"/>
       <c r="D13" s="114"/>
-      <c r="E13" s="324" t="str">
+      <c r="E13" s="297">
         <f>Resume!E9</f>
-        <v>PT A</v>
-      </c>
-      <c r="F13" s="324"/>
-      <c r="G13" s="324"/>
-      <c r="H13" s="325"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="298"/>
       <c r="I13" s="116" t="s">
         <v>57</v>
       </c>
@@ -11358,13 +11362,13 @@
       </c>
       <c r="C14" s="115"/>
       <c r="D14" s="114"/>
-      <c r="E14" s="324" t="str">
+      <c r="E14" s="297">
         <f>Resume!E10</f>
-        <v>PT B</v>
-      </c>
-      <c r="F14" s="324"/>
-      <c r="G14" s="324"/>
-      <c r="H14" s="325"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="297"/>
+      <c r="G14" s="297"/>
+      <c r="H14" s="298"/>
       <c r="I14" s="116" t="s">
         <v>57</v>
       </c>
@@ -11422,13 +11426,13 @@
       </c>
       <c r="C15" s="115"/>
       <c r="D15" s="114"/>
-      <c r="E15" s="322" t="str">
+      <c r="E15" s="293">
         <f>Resume!E11</f>
-        <v>PT C</v>
-      </c>
-      <c r="F15" s="322"/>
-      <c r="G15" s="322"/>
-      <c r="H15" s="323"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="293"/>
+      <c r="G15" s="293"/>
+      <c r="H15" s="294"/>
       <c r="I15" s="116" t="s">
         <v>57</v>
       </c>
@@ -11486,13 +11490,13 @@
       </c>
       <c r="C16" s="212"/>
       <c r="D16" s="212"/>
-      <c r="E16" s="322" t="str">
+      <c r="E16" s="293">
         <f>Resume!E12</f>
-        <v>PT D</v>
-      </c>
-      <c r="F16" s="322"/>
-      <c r="G16" s="322"/>
-      <c r="H16" s="323"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="294"/>
       <c r="I16" s="116" t="s">
         <v>57</v>
       </c>
@@ -11624,12 +11628,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E12:H12"/>
     <mergeCell ref="B3:W3"/>
     <mergeCell ref="B4:W4"/>
     <mergeCell ref="T8:T9"/>
@@ -11645,6 +11643,12 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="D7:H11"/>
     <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E12:H12"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -11698,98 +11702,98 @@
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="2:17" s="21" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="307" t="str">
+      <c r="B4" s="299" t="str">
         <f>Resume!B3</f>
         <v>PEKERJAAN #namapengadaan#</v>
       </c>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-      <c r="M4" s="263"/>
-      <c r="N4" s="263"/>
-      <c r="O4" s="263"/>
-      <c r="P4" s="263"/>
-      <c r="Q4" s="263"/>
+      <c r="C4" s="272"/>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
+      <c r="P4" s="272"/>
+      <c r="Q4" s="272"/>
     </row>
     <row r="5" spans="2:17" s="21" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="351" t="s">
+      <c r="B5" s="337" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="351"/>
-      <c r="D5" s="351"/>
-      <c r="E5" s="351"/>
-      <c r="F5" s="351"/>
-      <c r="G5" s="351"/>
-      <c r="H5" s="351"/>
-      <c r="I5" s="351"/>
-      <c r="J5" s="351"/>
-      <c r="K5" s="351"/>
-      <c r="L5" s="351"/>
-      <c r="M5" s="351"/>
-      <c r="N5" s="351"/>
-      <c r="O5" s="351"/>
-      <c r="P5" s="351"/>
-      <c r="Q5" s="351"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="337"/>
+      <c r="E5" s="337"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="337"/>
+      <c r="H5" s="337"/>
+      <c r="I5" s="337"/>
+      <c r="J5" s="337"/>
+      <c r="K5" s="337"/>
+      <c r="L5" s="337"/>
+      <c r="M5" s="337"/>
+      <c r="N5" s="337"/>
+      <c r="O5" s="337"/>
+      <c r="P5" s="337"/>
+      <c r="Q5" s="337"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="2:17" s="13" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="339" t="s">
+      <c r="B7" s="326" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="340"/>
-      <c r="D7" s="339" t="s">
+      <c r="C7" s="327"/>
+      <c r="D7" s="326" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="340"/>
-      <c r="F7" s="236" t="s">
+      <c r="E7" s="327"/>
+      <c r="F7" s="237" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="237"/>
+      <c r="G7" s="251"/>
       <c r="H7" s="238"/>
-      <c r="I7" s="331" t="s">
+      <c r="I7" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="331" t="s">
+      <c r="J7" s="335" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="233" t="s">
+      <c r="K7" s="248" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="235"/>
-      <c r="M7" s="234"/>
-      <c r="N7" s="327" t="s">
+      <c r="L7" s="250"/>
+      <c r="M7" s="249"/>
+      <c r="N7" s="339" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="328"/>
-      <c r="P7" s="329" t="s">
+      <c r="O7" s="340"/>
+      <c r="P7" s="341" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="330"/>
+      <c r="Q7" s="342"/>
     </row>
     <row r="8" spans="2:17" s="13" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="341"/>
-      <c r="C8" s="342"/>
-      <c r="D8" s="341"/>
-      <c r="E8" s="342"/>
-      <c r="F8" s="343"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="345"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="332"/>
-      <c r="K8" s="349" t="s">
+      <c r="B8" s="328"/>
+      <c r="C8" s="329"/>
+      <c r="D8" s="328"/>
+      <c r="E8" s="329"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="331"/>
+      <c r="H8" s="332"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="333" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="350"/>
+      <c r="L8" s="334"/>
       <c r="M8" s="16" t="s">
         <v>12</v>
       </c>
@@ -11812,15 +11816,15 @@
       </c>
       <c r="C9" s="80"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="79" t="str">
+      <c r="E9" s="79">
         <f>+Resume!E8</f>
-        <v>.......................</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="346" t="s">
+      <c r="H9" s="349" t="s">
         <v>123</v>
       </c>
       <c r="I9" s="197"/>
@@ -11846,7 +11850,7 @@
       <c r="E10" s="79"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="347"/>
+      <c r="H10" s="350"/>
       <c r="I10" s="197" t="s">
         <v>112</v>
       </c>
@@ -11858,7 +11862,7 @@
         <v>113</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N10" s="149" t="s">
         <v>113</v>
@@ -11876,7 +11880,7 @@
       <c r="E11" s="89"/>
       <c r="F11" s="53"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="348"/>
+      <c r="H11" s="351"/>
       <c r="I11" s="182"/>
       <c r="J11" s="201"/>
       <c r="K11" s="53"/>
@@ -11893,15 +11897,15 @@
       </c>
       <c r="C12" s="169"/>
       <c r="D12" s="170"/>
-      <c r="E12" s="170" t="str">
+      <c r="E12" s="170">
         <f>+Resume!E9</f>
-        <v>PT A</v>
+        <v>0</v>
       </c>
       <c r="F12" s="171">
         <v>1</v>
       </c>
       <c r="G12" s="172"/>
-      <c r="H12" s="333" t="s">
+      <c r="H12" s="343" t="s">
         <v>125</v>
       </c>
       <c r="I12" s="198" t="s">
@@ -11912,16 +11916,16 @@
       </c>
       <c r="K12" s="171"/>
       <c r="L12" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M12" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O12" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P12" s="184">
         <f>MAX(M12:M13)*5</f>
@@ -11939,7 +11943,7 @@
       <c r="E13" s="89"/>
       <c r="F13" s="53"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="334"/>
+      <c r="H13" s="344"/>
       <c r="I13" s="199"/>
       <c r="J13" s="203"/>
       <c r="K13" s="53"/>
@@ -11956,9 +11960,9 @@
       </c>
       <c r="C14" s="80"/>
       <c r="D14" s="79"/>
-      <c r="E14" s="79" t="str">
+      <c r="E14" s="79">
         <f>Resume!E10</f>
-        <v>PT B</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -11975,16 +11979,16 @@
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M14" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O14" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P14" s="184">
         <f>MAX(M14:M15)*5</f>
@@ -12037,19 +12041,19 @@
       </c>
       <c r="C17" s="169"/>
       <c r="D17" s="170"/>
-      <c r="E17" s="170" t="str">
+      <c r="E17" s="170">
         <f>Penerimaan!F45</f>
-        <v>PT C</v>
+        <v>0</v>
       </c>
       <c r="F17" s="171">
         <v>1</v>
       </c>
       <c r="G17" s="172"/>
-      <c r="H17" s="333" t="s">
+      <c r="H17" s="343" t="s">
         <v>129</v>
       </c>
       <c r="I17" s="198"/>
-      <c r="J17" s="336" t="s">
+      <c r="J17" s="346" t="s">
         <v>124</v>
       </c>
       <c r="K17" s="171"/>
@@ -12073,23 +12077,23 @@
       <c r="E18" s="79"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="335"/>
+      <c r="H18" s="345"/>
       <c r="I18" s="197" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="337"/>
+      <c r="J18" s="347"/>
       <c r="K18" s="5"/>
       <c r="L18" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M18" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="O18" s="63" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="P18" s="84"/>
       <c r="Q18" s="84"/>
@@ -12101,9 +12105,9 @@
       <c r="E19" s="89"/>
       <c r="F19" s="53"/>
       <c r="G19" s="52"/>
-      <c r="H19" s="334"/>
+      <c r="H19" s="344"/>
       <c r="I19" s="182"/>
-      <c r="J19" s="338"/>
+      <c r="J19" s="348"/>
       <c r="K19" s="53"/>
       <c r="L19" s="206"/>
       <c r="M19" s="64"/>
@@ -12167,11 +12171,11 @@
       </c>
       <c r="C24" s="55"/>
       <c r="E24" s="55"/>
-      <c r="F24" s="326">
+      <c r="F24" s="338">
         <v>1800000000</v>
       </c>
-      <c r="G24" s="326"/>
-      <c r="H24" s="326"/>
+      <c r="G24" s="338"/>
+      <c r="H24" s="338"/>
       <c r="I24" s="60"/>
       <c r="J24" s="10"/>
       <c r="O24" s="107"/>
@@ -12201,6 +12205,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="D7:E8"/>
@@ -12209,14 +12221,6 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="B5:Q5"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="H9:H11"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
